--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,10 +98,12 @@
   - `D` -&gt; #medication
   - `F' -&gt; #food
   - `O` -&gt; #environment
+- presume if `drugClass` is indicated then the `category` should be #medication
 TODO:
 - unclear
   - `intoleranceCondition.status` is always `F` in the mock data I have been given, so unclear what the meaning is. From the name 'status' I presume this is the status of the allergy, but unclear.
   - will presume we only get `active`
+  - no clear place to record `informationSourceCategory`, `recordSource`, or `facilityIdentifer`
   - reaction.reaction.code seems to be a number, but I can't find a codeSystem with these numbers.
     - would be good to have SNOMED-CT, but this does not seem to be SNOMED</t>
   </si>
@@ -993,7 +995,7 @@
     <t>AL1-2</t>
   </si>
   <si>
-    <t>~intoleranceCondition.allergyType.code &amp; intoleranceCondition.drugClass.code</t>
+    <t>intoleranceCondition.drugClass.code</t>
   </si>
   <si>
     <t>AllergyIntolerance.criticality</t>
@@ -2066,7 +2068,7 @@
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.10546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="52.48828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,7 +103,7 @@
 - unclear
   - `intoleranceCondition.status` is always `F` in the mock data I have been given, so unclear what the meaning is. From the name 'status' I presume this is the status of the allergy, but unclear.
   - will presume we only get `active`
-  - no clear place to record `informationSourceCategory`, `recordSource`, or `facilityIdentifer`
+  - no clear place to record `informationSourceCategory`, `recordSource`, `recordVersion`
   - reaction.reaction.code seems to be a number, but I can't find a codeSystem with these numbers.
     - would be good to have SNOMED-CT, but this does not seem to be SNOMED</t>
   </si>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="536">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t>A profile on the AllergyIntolerance resource for MHV PHR exposing Allergies using FHIR API.
-- The mock example maps to [intoleranceConditions](https://github.com/department-of-veterans-affairs/mhv-np-cds-wsclient/blob/development/src/main/resources/xsd/templates/MHVIntoleranceConditionRead40011/template/MHVIntoleranceConditionRead40011.xsd) schema. 
+- The [mock example](https://github.com/JohnMoehrke/MHV-PHR/blob/main/mocks/allergies.xml) maps to [intoleranceConditions](https://github.com/department-of-veterans-affairs/mhv-np-cds-wsclient/blob/development/src/main/resources/xsd/templates/MHVIntoleranceConditionRead40011/template/MHVIntoleranceConditionRead40011.xsd) schema. 
 - Should be based on US-Core for AllergyIntolerance Resource profile
 - a `clinicalStatus` of the allergy (e.g.,active or resolved)
   - Given that intoleranceCondition.status is unclear; will presume we only see `active`
@@ -94,17 +94,20 @@
   - at least `code.text`
   - would be good to have a coding, but there does not appear to be any source for that
 - a patient
-- category derived from .allergyType (multiple codes are multiple category)
+- `category` derived from `.allergyType` 
   - `D` -&gt; #medication
-  - `F' -&gt; #food
+  - `F` -&gt; #food
   - `O` -&gt; #environment
+  - multiple codes are multiple category - `DF` -&gt; both #medication and #food
 - presume if `drugClass` is indicated then the `category` should be #medication
+  - `drugClass.code.displayText` -&gt; `.code.coding.display`
 TODO:
 - unclear
-  - `intoleranceCondition.status` is always `F` in the mock data I have been given, so unclear what the meaning is. From the name 'status' I presume this is the status of the allergy, but unclear.
-  - will presume we only get `active`
+  - `facilityIdentifier` might be where the allergy was first recorded, but there is no place for this in the FHIR AllertyIntolerance.
   - no clear place to record `informationSourceCategory`, `recordSource`, `recordVersion`
-  - reaction.reaction.code seems to be a number, but I can't find a codeSystem with these numbers.
+    - `informationSourceCategory` mock data = 4500978/OBSERVED, 4500975/HISTORICAL
+	  - this might be FHIR `.verificationStatus`, but we can't fill that element without also declaring one of the codes mandated (unconfirmed, confirmed, refuted, or entered-in-error)
+  - `reaction.reaction.code` seems to be a number, but I can't find a codeSystem with these numbers.
     - would be good to have SNOMED-CT, but this does not seem to be SNOMED</t>
   </si>
   <si>
@@ -995,7 +998,7 @@
     <t>AL1-2</t>
   </si>
   <si>
-    <t>intoleranceCondition.drugClass.code</t>
+    <t>~intoleranceCondition.allergyType.code</t>
   </si>
   <si>
     <t>AllergyIntolerance.criticality</t>
@@ -1101,6 +1104,130 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
+    <t>AllergyIntolerance.code.coding.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>intoleranceCondition.drugClass.code</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.code.text</t>
   </si>
   <si>
@@ -1253,9 +1380,6 @@
     <t>FiveWs.author</t>
   </si>
   <si>
-    <t>getFacility(intoleranceCondition.facilityIdentifier.identity)</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.asserter</t>
   </si>
   <si>
@@ -1493,119 +1617,19 @@
     <t>AllergyIntolerance.reaction.manifestation.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
     <t>intoleranceCondition.reaction.reaction.code</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation.text</t>
@@ -2021,7 +2045,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2068,7 +2092,7 @@
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="52.48828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="46.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6308,7 +6332,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -6320,23 +6344,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6384,7 +6404,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6396,58 +6416,60 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>104</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>348</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6484,51 +6506,51 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>114</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>104</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6548,19 +6570,23 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6608,7 +6634,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6623,13 +6649,13 @@
         <v>121</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6637,10 +6663,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6660,18 +6686,20 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6708,17 +6736,19 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6733,13 +6763,13 @@
         <v>121</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6747,14 +6777,12 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6766,25 +6794,27 @@
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>164</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6832,7 +6862,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6847,24 +6877,24 @@
         <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6884,19 +6914,21 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6944,7 +6976,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6959,28 +6991,28 @@
         <v>121</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6990,25 +7022,29 @@
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7056,7 +7092,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7071,32 +7107,32 @@
         <v>121</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -7111,18 +7147,20 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7170,7 +7208,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7185,57 +7223,55 @@
         <v>121</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7284,10 +7320,10 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>87</v>
@@ -7299,24 +7335,24 @@
         <v>121</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7327,10 +7363,10 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>80</v>
@@ -7339,17 +7375,15 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7398,13 +7432,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7413,24 +7447,24 @@
         <v>121</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7453,13 +7487,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>101</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>102</v>
+        <v>405</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7498,19 +7532,17 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>103</v>
+        <v>402</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7522,13 +7554,13 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7539,24 +7571,26 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="D49" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -7565,17 +7599,15 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7612,51 +7644,51 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7667,7 +7699,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7676,20 +7708,18 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7738,7 +7768,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7753,13 +7783,13 @@
         <v>121</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>187</v>
+        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7767,14 +7797,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7790,16 +7820,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7865,38 +7895,38 @@
         <v>121</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -7905,15 +7935,17 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7965,7 +7997,7 @@
         <v>426</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
@@ -7977,24 +8009,24 @@
         <v>121</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>187</v>
+        <v>434</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8005,10 +8037,10 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8017,15 +8049,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8074,13 +8108,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8089,7 +8123,7 @@
         <v>121</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8103,10 +8137,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8117,10 +8151,10 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8129,15 +8163,17 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>100</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>101</v>
+        <v>442</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8186,22 +8222,22 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>104</v>
+        <v>445</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8210,26 +8246,26 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8241,17 +8277,15 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8300,19 +8334,19 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>104</v>
@@ -8329,14 +8363,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>437</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8349,26 +8383,24 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>438</v>
+        <v>108</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>439</v>
+        <v>109</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8404,19 +8436,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>440</v>
+        <v>114</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8431,7 +8463,7 @@
         <v>115</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8445,10 +8477,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8468,19 +8500,19 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8506,13 +8538,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8530,7 +8562,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8545,13 +8577,13 @@
         <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8559,18 +8591,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
@@ -8582,20 +8614,18 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8620,11 +8650,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8642,13 +8674,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8657,24 +8689,24 @@
         <v>121</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>295</v>
+        <v>460</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>454</v>
+        <v>187</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8682,28 +8714,28 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>100</v>
+        <v>463</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>101</v>
+        <v>464</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>102</v>
+        <v>465</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8754,10 +8786,10 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>103</v>
+        <v>466</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>87</v>
@@ -8766,31 +8798,31 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>104</v>
+        <v>467</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8800,7 +8832,7 @@
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
@@ -8809,17 +8841,15 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>470</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>108</v>
+        <v>471</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8856,19 +8886,19 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>114</v>
+        <v>469</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8880,10 +8910,10 @@
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>104</v>
+        <v>473</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8897,10 +8927,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8911,7 +8941,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8920,23 +8950,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>330</v>
+        <v>101</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8984,28 +9010,28 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9013,21 +9039,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9039,15 +9065,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9096,19 +9124,19 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>104</v>
@@ -9125,14 +9153,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>106</v>
+        <v>477</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9145,24 +9173,26 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>108</v>
+        <v>478</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>109</v>
+        <v>479</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9198,19 +9228,19 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>114</v>
+        <v>480</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9225,7 +9255,7 @@
         <v>115</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9239,10 +9269,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9253,7 +9283,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9262,23 +9292,21 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9302,13 +9330,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9326,7 +9354,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9341,13 +9369,13 @@
         <v>121</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9355,42 +9383,42 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9416,13 +9444,11 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9440,13 +9466,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9455,24 +9481,24 @@
         <v>121</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>474</v>
+        <v>295</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9492,21 +9518,19 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>477</v>
+        <v>101</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>478</v>
+        <v>102</v>
       </c>
       <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>479</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9554,7 +9578,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>480</v>
+        <v>103</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9566,38 +9590,38 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>481</v>
+        <v>104</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9606,21 +9630,21 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>485</v>
+        <v>108</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9656,40 +9680,40 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>488</v>
+        <v>114</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>489</v>
+        <v>104</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -9697,10 +9721,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9711,7 +9735,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -9723,19 +9747,19 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>493</v>
+        <v>330</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>494</v>
+        <v>331</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>495</v>
+        <v>332</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>496</v>
+        <v>333</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9784,13 +9808,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>497</v>
+        <v>334</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -9799,13 +9823,13 @@
         <v>121</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>498</v>
+        <v>335</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>499</v>
+        <v>336</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -9813,10 +9837,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9836,23 +9860,19 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9900,7 +9920,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9912,38 +9932,38 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>343</v>
+        <v>104</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>503</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -9955,16 +9975,16 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>504</v>
+        <v>108</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>505</v>
+        <v>109</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>506</v>
+        <v>110</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10002,34 +10022,34 @@
         <v>80</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>502</v>
+        <v>114</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10043,10 +10063,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10057,7 +10077,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10066,19 +10086,23 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>509</v>
+        <v>340</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10126,7 +10150,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>508</v>
+        <v>344</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10141,13 +10165,13 @@
         <v>121</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>511</v>
+        <v>346</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10155,10 +10179,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10169,7 +10193,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10178,19 +10202,19 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>513</v>
+        <v>348</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>514</v>
+        <v>349</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>515</v>
+        <v>350</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10216,13 +10240,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>517</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10240,7 +10264,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>512</v>
+        <v>351</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10255,13 +10279,13 @@
         <v>121</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10269,10 +10293,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10292,21 +10316,21 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>519</v>
+        <v>355</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10330,13 +10354,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10354,7 +10378,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>518</v>
+        <v>358</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10369,24 +10393,24 @@
         <v>121</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>524</v>
+        <v>359</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10397,7 +10421,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10406,21 +10430,21 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>401</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>526</v>
+        <v>362</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10468,13 +10492,13 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>525</v>
+        <v>365</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
@@ -10483,20 +10507,820 @@
         <v>121</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10506,7 +11330,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,14 +101,15 @@
   - multiple codes are multiple category - `DF` -&gt; both #medication and #food
 - presume if `drugClass` is indicated then the `category` should be #medication
   - `drugClass.code.displayText` -&gt; `.code.coding.display`
-TODO:
-- unclear
-  - `facilityIdentifier` might be where the allergy was first recorded, but there is no place for this in the FHIR AllertyIntolerance.
-  - no clear place to record `informationSourceCategory`, `recordSource`, `recordVersion`
-    - `informationSourceCategory` mock data = 4500978/OBSERVED, 4500975/HISTORICAL
-	  - this might be FHIR `.verificationStatus`, but we can't fill that element without also declaring one of the codes mandated (unconfirmed, confirmed, refuted, or entered-in-error)
-  - `reaction.reaction.code` seems to be a number, but I can't find a codeSystem with these numbers.
-    - would be good to have SNOMED-CT, but this does not seem to be SNOMED</t>
+Notes:
+- `facilityIdentifier` might be where the allergy was first recorded, but there is no place for this in the FHIR AllertyIntolerance.
+- no clear place to record `recordSource`, `recordVersion`
+- no clear handling of `informationSourceCategory` 
+  - mock data = 4500978/OBSERVED, 4500975/HISTORICAL
+  - this might be FHIR `.verificationStatus`, but we must fill that element one of the codes (unconfirmed, confirmed, refuted, or entered-in-error)
+  - could define a mapping to .verificationStatus codes (might be OBSERVED is confirmed, and HISTORICAL is unconfirmed?)
+  - or could define an extension if this is needed
+- `reaction.reaction.code` seems to be a number, but I can't find a codeSystem with these numbers. Would be good to have SNOMED-CT, but this does not seem to be SNOMED</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1468,6 +1468,9 @@
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.system</t>
+  </si>
+  <si>
+    <t>if code is 7 digits, then system is VUID, else use SNOMED-CT system</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.version</t>
@@ -1944,7 +1947,7 @@
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="46.46484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="61.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9902,15 +9905,15 @@
         <v>305</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>40</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10021,10 +10024,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10130,15 +10133,15 @@
         <v>319</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10249,10 +10252,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10365,10 +10368,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10476,19 +10479,19 @@
         <v>344</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10510,13 +10513,13 @@
         <v>60</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10566,7 +10569,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -10581,7 +10584,7 @@
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -10595,10 +10598,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10624,10 +10627,10 @@
         <v>370</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10678,7 +10681,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -10699,7 +10702,7 @@
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>40</v>
@@ -10707,10 +10710,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10736,13 +10739,13 @@
         <v>124</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10771,10 +10774,10 @@
         <v>180</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>40</v>
@@ -10792,7 +10795,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -10821,10 +10824,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10850,13 +10853,13 @@
         <v>187</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10885,10 +10888,10 @@
         <v>114</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>40</v>
@@ -10906,7 +10909,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -10921,7 +10924,7 @@
         <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10935,10 +10938,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10964,13 +10967,13 @@
         <v>400</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11020,7 +11023,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
+  </si>
+  <si>
+    <t>intoleranceCondition.informationSourceCategory: `OBSERVED` -&gt; `confirmed`;  `HISTORICAL` -&gt; `unconfirmed`</t>
   </si>
   <si>
     <t>AllergyIntolerance.type</t>
@@ -1231,6 +1234,173 @@
   </si>
   <si>
     <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension:visn</t>
+  </si>
+  <si>
+    <t>visn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
+</t>
+  </si>
+  <si>
+    <t>Alternative reference (target type is wrong)</t>
+  </si>
+  <si>
+    <t>Used when the target of the reference has a type that is not allowed by the definition of the element. In general, this should only arise when wrangling between versions using cross-version extensions.</t>
+  </si>
+  <si>
+    <t>Given that a reference SHALL have a display or reference, using this extension implies that there's a display present.</t>
+  </si>
+  <si>
+    <t>Organization(intoleranceCondition.facilityIdentifier)</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension:visn.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension:visn.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension:visn.url</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-reference</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension:visn.value[x]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.recorder.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>AllergyIntolerance.asserter</t>
@@ -1901,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1947,7 +2117,7 @@
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="61.3671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="99.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5157,10 +5327,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>48</v>
@@ -5253,19 +5423,19 @@
         <v>40</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5287,13 +5457,13 @@
         <v>124</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5322,10 +5492,10 @@
         <v>180</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
@@ -5343,7 +5513,7 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5358,13 +5528,13 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>40</v>
@@ -5372,14 +5542,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5401,13 +5571,13 @@
         <v>124</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5437,7 +5607,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>40</v>
@@ -5455,7 +5625,7 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5470,28 +5640,28 @@
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5513,13 +5683,13 @@
         <v>124</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5548,10 +5718,10 @@
         <v>180</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>40</v>
@@ -5569,7 +5739,7 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -5584,13 +5754,13 @@
         <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>40</v>
@@ -5598,14 +5768,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5627,13 +5797,13 @@
         <v>187</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5663,7 +5833,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>40</v>
@@ -5681,7 +5851,7 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5696,13 +5866,13 @@
         <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>40</v>
@@ -5710,10 +5880,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5822,10 +5992,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5936,10 +6106,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5965,16 +6135,16 @@
         <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6023,7 +6193,7 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6038,13 +6208,13 @@
         <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>40</v>
@@ -6052,10 +6222,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6164,10 +6334,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6278,10 +6448,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6307,16 +6477,16 @@
         <v>90</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6365,7 +6535,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6380,13 +6550,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>40</v>
@@ -6394,10 +6564,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6423,13 +6593,13 @@
         <v>60</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6479,7 +6649,7 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6494,13 +6664,13 @@
         <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>40</v>
@@ -6508,10 +6678,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6537,14 +6707,14 @@
         <v>124</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -6593,7 +6763,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6608,13 +6778,13 @@
         <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>40</v>
@@ -6622,10 +6792,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6651,14 +6821,14 @@
         <v>60</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>40</v>
@@ -6707,7 +6877,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6722,24 +6892,24 @@
         <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6762,19 +6932,19 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -6823,7 +6993,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -6838,13 +7008,13 @@
         <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>40</v>
@@ -6852,10 +7022,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6881,16 +7051,16 @@
         <v>60</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -6939,7 +7109,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -6954,28 +7124,28 @@
         <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6994,13 +7164,13 @@
         <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7051,7 +7221,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>47</v>
@@ -7066,24 +7236,24 @@
         <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7106,13 +7276,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7163,7 +7333,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7178,10 +7348,10 @@
         <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -7192,10 +7362,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7218,13 +7388,13 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7263,7 +7433,7 @@
         <v>40</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
@@ -7273,7 +7443,7 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7288,10 +7458,10 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -7302,13 +7472,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>40</v>
@@ -7330,13 +7500,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7387,7 +7557,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7402,24 +7572,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7442,13 +7612,13 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7499,7 +7669,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -7514,13 +7684,13 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>40</v>
@@ -7528,14 +7698,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7554,13 +7724,13 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7611,7 +7781,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7626,10 +7796,10 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7640,21 +7810,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>386</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -7663,20 +7833,18 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>61</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -7725,7 +7893,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>385</v>
+        <v>63</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -7737,16 +7905,16 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>391</v>
+        <v>64</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>40</v>
@@ -7754,21 +7922,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -7780,16 +7948,16 @@
         <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>370</v>
+        <v>67</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>68</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
+        <v>69</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>397</v>
+        <v>70</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7827,34 +7995,34 @@
         <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>394</v>
+        <v>74</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>398</v>
+        <v>64</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7868,12 +8036,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7882,10 +8052,10 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>40</v>
@@ -7894,16 +8064,16 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7953,7 +8123,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -7965,10 +8135,10 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7977,15 +8147,15 @@
         <v>40</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8008,7 +8178,7 @@
         <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>61</v>
@@ -8074,7 +8244,7 @@
         <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>397</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
@@ -8094,21 +8264,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -8123,14 +8293,12 @@
         <v>67</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -8194,7 +8362,7 @@
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -8208,10 +8376,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8219,10 +8387,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -8231,19 +8399,19 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>90</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8251,7 +8419,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>40</v>
+        <v>407</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>40</v>
@@ -8293,10 +8461,10 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>47</v>
@@ -8305,16 +8473,16 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>147</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>40</v>
@@ -8322,10 +8490,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8333,28 +8501,28 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8405,7 +8573,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -8414,30 +8582,30 @@
         <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>40</v>
+        <v>414</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>147</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>420</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8445,13 +8613,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>40</v>
@@ -8460,15 +8628,17 @@
         <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>60</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -8517,39 +8687,39 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>426</v>
+        <v>147</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>427</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8560,27 +8730,29 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>429</v>
+        <v>90</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -8605,13 +8777,13 @@
         <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>40</v>
+        <v>426</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>40</v>
@@ -8629,13 +8801,13 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
@@ -8644,7 +8816,7 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>432</v>
+        <v>147</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -8658,10 +8830,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8681,18 +8853,20 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>61</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>40</v>
@@ -8741,7 +8915,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>63</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -8753,10 +8927,10 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>64</v>
+        <v>433</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8777,14 +8951,14 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -8793,19 +8967,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>68</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>69</v>
+        <v>436</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8855,22 +9029,22 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>74</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8884,46 +9058,44 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>67</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8977,22 +9149,22 @@
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>147</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>40</v>
+        <v>446</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
+        <v>447</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>40</v>
@@ -9000,10 +9172,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9026,16 +9198,16 @@
         <v>40</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>187</v>
+        <v>371</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9061,13 +9233,13 @@
         <v>40</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>444</v>
+        <v>40</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>40</v>
@@ -9085,7 +9257,7 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -9100,7 +9272,7 @@
         <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -9114,21 +9286,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>448</v>
+        <v>40</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>48</v>
@@ -9140,16 +9312,16 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>187</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9175,11 +9347,13 @@
         <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>452</v>
+        <v>40</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>40</v>
@@ -9197,10 +9371,10 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -9212,24 +9386,24 @@
         <v>81</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>255</v>
+        <v>458</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>453</v>
+        <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9338,10 +9512,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9452,10 +9626,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9466,7 +9640,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -9478,20 +9652,18 @@
         <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>463</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>289</v>
+        <v>464</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>290</v>
+        <v>465</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>40</v>
       </c>
@@ -9539,13 +9711,13 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>293</v>
+        <v>467</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
@@ -9554,13 +9726,13 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>294</v>
+        <v>468</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>40</v>
@@ -9568,10 +9740,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9585,22 +9757,22 @@
         <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>60</v>
+        <v>371</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>61</v>
+        <v>470</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>62</v>
+        <v>471</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9651,7 +9823,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>63</v>
+        <v>472</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -9663,60 +9835,58 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>64</v>
+        <v>473</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>40</v>
+        <v>474</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>67</v>
+        <v>476</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>68</v>
+        <v>477</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -9753,51 +9923,51 @@
         <v>40</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>74</v>
+        <v>479</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>64</v>
+        <v>480</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>40</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9808,32 +9978,28 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>90</v>
+        <v>483</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>299</v>
+        <v>484</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9881,13 +10047,13 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>303</v>
+        <v>482</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>40</v>
@@ -9896,24 +10062,24 @@
         <v>81</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>304</v>
+        <v>486</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>461</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9933,20 +10099,18 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>60</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>307</v>
+        <v>61</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -9995,7 +10159,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>310</v>
+        <v>63</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -10007,16 +10171,16 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>40</v>
@@ -10024,21 +10188,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -10047,21 +10211,21 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>40</v>
       </c>
@@ -10109,72 +10273,74 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>464</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>40</v>
+        <v>490</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>323</v>
+        <v>154</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
@@ -10223,28 +10389,28 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>324</v>
+        <v>493</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>325</v>
+        <v>147</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>40</v>
@@ -10252,10 +10418,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10266,7 +10432,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -10275,23 +10441,21 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>330</v>
+        <v>495</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>331</v>
+        <v>496</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>40</v>
       </c>
@@ -10315,13 +10479,13 @@
         <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>40</v>
+        <v>498</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>40</v>
+        <v>499</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>40</v>
@@ -10339,7 +10503,7 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>334</v>
+        <v>494</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -10354,13 +10518,13 @@
         <v>81</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>40</v>
@@ -10368,46 +10532,44 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>338</v>
+        <v>503</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>339</v>
+        <v>504</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>40</v>
       </c>
@@ -10431,13 +10593,11 @@
         <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>40</v>
+        <v>506</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>40</v>
@@ -10455,13 +10615,13 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>342</v>
+        <v>501</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>40</v>
@@ -10470,35 +10630,35 @@
         <v>81</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>344</v>
+        <v>507</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>468</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>470</v>
+        <v>40</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -10513,14 +10673,12 @@
         <v>60</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>471</v>
+        <v>61</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -10569,7 +10727,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>469</v>
+        <v>63</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -10581,10 +10739,10 @@
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>474</v>
+        <v>64</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -10598,21 +10756,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -10624,15 +10782,17 @@
         <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>370</v>
+        <v>67</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>476</v>
+        <v>68</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -10669,40 +10829,40 @@
         <v>40</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>475</v>
+        <v>74</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>366</v>
+        <v>64</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>478</v>
+        <v>40</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>40</v>
@@ -10710,10 +10870,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10724,7 +10884,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>
@@ -10733,21 +10893,23 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>481</v>
+        <v>291</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10771,13 +10933,13 @@
         <v>40</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>483</v>
+        <v>40</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>484</v>
+        <v>40</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>40</v>
@@ -10795,13 +10957,13 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>479</v>
+        <v>294</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>40</v>
@@ -10810,13 +10972,13 @@
         <v>81</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>40</v>
@@ -10824,10 +10986,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10838,7 +11000,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>40</v>
@@ -10850,17 +11012,15 @@
         <v>40</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>486</v>
+        <v>61</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -10885,13 +11045,13 @@
         <v>40</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>489</v>
+        <v>40</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>490</v>
+        <v>40</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>40</v>
@@ -10909,7 +11069,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>485</v>
+        <v>63</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -10921,10 +11081,10 @@
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>491</v>
+        <v>64</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10938,21 +11098,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -10964,16 +11124,16 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>400</v>
+        <v>67</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>493</v>
+        <v>68</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>494</v>
+        <v>69</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>495</v>
+        <v>70</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11011,19 +11171,19 @@
         <v>40</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>492</v>
+        <v>74</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -11035,23 +11195,1281 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK80" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AK81" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN80">
+  <autoFilter ref="A1:AN91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11061,7 +12479,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -155,7 +155,7 @@
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
-    <t>VHIM Allergy</t>
+    <t>HDR Allergy</t>
   </si>
   <si>
     <t>AllergyIntolerance.id</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.allergyIntolerance</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.allergyIntolerance</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -845,7 +845,7 @@
     <t>This data element has been included because it is currently being captured in some clinical systems. This data can be derived from the substance where coding systems are used, and is effectively redundant in that situation.  When searching on category, consider the implications of AllergyIntolerance resources without a category.  For example, when searching on category = medication, medication allergies that don't have a category valued will not be returned.  Refer to [search](http://hl7.org/fhir/R4/search.html) for more information on how to search category with a :missing modifier to get allergies that don't have a category.  Additionally, category should be used with caution because category can be subjective based on the sender.</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/AllergyCategoryVS</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/AllergyCategoryVS</t>
   </si>
   <si>
     <t>value &lt; IntoleranceValue (Agent)</t>
@@ -2103,7 +2103,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="120.87890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="91.21875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="12.12890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="568">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,10 @@
     <t>\-</t>
   </si>
   <si>
+    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
+ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
@@ -199,6 +203,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.meta.id</t>
   </si>
   <si>
@@ -270,10 +278,6 @@
     <t>Meta.versionId</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.meta.lastUpdated</t>
   </si>
   <si>
@@ -578,7 +582,7 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>usual</t>
+    <t>official</t>
   </si>
   <si>
     <t>required</t>
@@ -636,7 +640,7 @@
     <t>AllergyIntolerance.identifier.system</t>
   </si>
   <si>
-    <t>{intoleranceCondition.recordIdentifier.namespaceId}</t>
+    <t>`http://va.gov/systems/` | {intoleranceCondition.recordIdentifier.namespaceId}</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -652,6 +656,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+HDRid-startswithoid:ID system must start with http://va.gov/systems/ The next would be the {idSourceTable} {value.startsWith('http://va.gov/systems/')}</t>
   </si>
   <si>
     <t>II.root or Role.id.root</t>
@@ -738,6 +746,52 @@
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
+  </si>
+  <si>
+    <t>use when namespaceId is missing</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>`AllergyTO` | `.` | {intoleranceCondition.recordIdentifier.identity}</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:TOid.assigner</t>
   </si>
   <si>
     <t>AllergyIntolerance.clinicalStatus</t>
@@ -1220,7 +1274,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1311,6 +1365,10 @@
   </si>
   <si>
     <t>AllergyIntolerance.recorder.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization) &lt;&lt;contained&gt;&gt;
+</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -2071,7 +2129,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2089,7 +2147,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2219,10 +2277,10 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>40</v>
@@ -2231,15 +2289,15 @@
         <v>40</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2250,7 +2308,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -2259,19 +2317,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2321,13 +2379,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2350,10 +2408,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2364,7 +2422,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2373,16 +2431,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2433,19 +2491,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2462,10 +2520,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2476,7 +2534,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -2488,13 +2546,13 @@
         <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2545,13 +2603,13 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
@@ -2560,7 +2618,7 @@
         <v>40</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>40</v>
@@ -2574,14 +2632,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2600,16 +2658,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2647,19 +2705,19 @@
         <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -2671,10 +2729,10 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -2688,10 +2746,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2702,7 +2760,7 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -2711,19 +2769,19 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2773,19 +2831,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2802,10 +2860,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2816,28 +2874,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2887,19 +2945,19 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>40</v>
@@ -2911,15 +2969,15 @@
         <v>40</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2930,7 +2988,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>40</v>
@@ -2939,19 +2997,19 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3001,19 +3059,19 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -3030,10 +3088,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3053,19 +3111,19 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3115,7 +3173,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3127,7 +3185,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -3144,10 +3202,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3167,19 +3225,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3205,13 +3263,13 @@
         <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>40</v>
@@ -3229,7 +3287,7 @@
         <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3241,7 +3299,7 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>40</v>
@@ -3258,10 +3316,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3281,19 +3339,19 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3319,13 +3377,13 @@
         <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>40</v>
@@ -3343,7 +3401,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3355,7 +3413,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>40</v>
@@ -3372,10 +3430,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3386,28 +3444,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3457,19 +3515,19 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>40</v>
@@ -3486,10 +3544,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3500,7 +3558,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -3512,16 +3570,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3547,13 +3605,13 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>40</v>
@@ -3571,19 +3629,19 @@
         <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -3600,21 +3658,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
@@ -3626,16 +3684,16 @@
         <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3685,22 +3743,22 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3714,14 +3772,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3740,16 +3798,16 @@
         <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3799,7 +3857,7 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3814,7 +3872,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3828,14 +3886,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3854,16 +3912,16 @@
         <v>40</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3913,7 +3971,7 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3925,10 +3983,10 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3942,14 +4000,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3962,25 +4020,25 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>40</v>
@@ -4029,7 +4087,7 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -4041,10 +4099,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -4058,10 +4116,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4069,7 +4127,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -4081,22 +4139,22 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>40</v>
@@ -4133,17 +4191,17 @@
         <v>40</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -4155,40 +4213,40 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -4197,22 +4255,22 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>40</v>
@@ -4261,7 +4319,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -4273,16 +4331,16 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>40</v>
@@ -4290,10 +4348,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4304,7 +4362,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -4316,13 +4374,13 @@
         <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4373,13 +4431,13 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
@@ -4388,7 +4446,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -4402,14 +4460,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4428,16 +4486,16 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4475,19 +4533,19 @@
         <v>40</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4499,10 +4557,10 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -4516,10 +4574,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4527,34 +4585,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -4564,7 +4622,7 @@
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -4579,13 +4637,13 @@
         <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>40</v>
@@ -4603,28 +4661,28 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>40</v>
@@ -4632,10 +4690,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4646,7 +4704,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -4655,22 +4713,22 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -4695,13 +4753,13 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>40</v>
@@ -4719,28 +4777,28 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>40</v>
@@ -4748,10 +4806,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4762,7 +4820,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -4771,22 +4829,22 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -4799,7 +4857,7 @@
         <v>40</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>40</v>
@@ -4835,28 +4893,28 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>40</v>
@@ -4864,10 +4922,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4878,7 +4936,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -4887,19 +4945,19 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4913,7 +4971,7 @@
         <v>40</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>40</v>
@@ -4949,28 +5007,28 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>40</v>
@@ -4978,10 +5036,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4992,7 +5050,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -5001,16 +5059,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5061,28 +5119,28 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>40</v>
@@ -5090,10 +5148,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5104,7 +5162,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -5113,19 +5171,19 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5175,28 +5233,28 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>40</v>
@@ -5204,12 +5262,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>40</v>
       </c>
@@ -5218,30 +5278,32 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>40</v>
       </c>
@@ -5250,7 +5312,7 @@
         <v>40</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>40</v>
@@ -5265,11 +5327,13 @@
         <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>40</v>
@@ -5287,39 +5351,39 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5327,32 +5391,30 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>40</v>
@@ -5377,11 +5439,13 @@
         <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>40</v>
@@ -5399,50 +5463,50 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -5451,19 +5515,19 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5489,52 +5553,52 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>40</v>
@@ -5542,44 +5606,46 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>40</v>
       </c>
@@ -5588,7 +5654,7 @@
         <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>40</v>
@@ -5603,11 +5669,13 @@
         <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>40</v>
@@ -5625,50 +5693,50 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>266</v>
+        <v>148</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -5677,21 +5745,23 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
+        <v>190</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5715,13 +5785,13 @@
         <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>40</v>
@@ -5739,28 +5809,28 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>40</v>
@@ -5768,44 +5838,46 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5817,7 +5889,7 @@
         <v>40</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>40</v>
@@ -5829,11 +5901,13 @@
         <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>40</v>
@@ -5851,28 +5925,28 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>40</v>
@@ -5880,10 +5954,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5894,7 +5968,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -5903,18 +5977,20 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>40</v>
@@ -5927,7 +6003,7 @@
         <v>40</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>40</v>
@@ -5963,28 +6039,28 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>40</v>
@@ -5992,21 +6068,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -6015,20 +6091,18 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6065,40 +6139,40 @@
         <v>40</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>40</v>
@@ -6106,10 +6180,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6120,7 +6194,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
@@ -6129,23 +6203,21 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>40</v>
       </c>
@@ -6193,28 +6265,28 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>40</v>
@@ -6222,10 +6294,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6236,27 +6308,29 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6266,7 +6340,7 @@
         <v>40</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>40</v>
@@ -6281,13 +6355,11 @@
         <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>40</v>
@@ -6305,71 +6377,71 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>63</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6395,74 +6467,72 @@
         <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -6471,23 +6541,21 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>40</v>
       </c>
@@ -6511,13 +6579,13 @@
         <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>40</v>
@@ -6535,28 +6603,28 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>40</v>
@@ -6564,42 +6632,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6625,13 +6693,11 @@
         <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>40</v>
@@ -6649,50 +6715,50 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
@@ -6701,21 +6767,21 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6739,13 +6805,13 @@
         <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>40</v>
@@ -6763,28 +6829,28 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>40</v>
@@ -6792,44 +6858,44 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6853,13 +6919,11 @@
         <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>40</v>
@@ -6877,39 +6941,39 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6920,7 +6984,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -6929,23 +6993,19 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>330</v>
+        <v>62</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
+        <v>63</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6993,28 +7053,28 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>65</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>336</v>
+        <v>66</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>40</v>
@@ -7022,21 +7082,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>40</v>
@@ -7045,23 +7105,21 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>70</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
+        <v>71</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>40</v>
       </c>
@@ -7097,83 +7155,87 @@
         <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>344</v>
+        <v>66</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>346</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
       </c>
@@ -7221,39 +7283,39 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7264,7 +7326,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -7276,13 +7338,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>62</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>63</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>359</v>
+        <v>64</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7333,25 +7395,25 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>356</v>
+        <v>65</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>360</v>
+        <v>66</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -7362,21 +7424,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -7388,15 +7450,17 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>69</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>70</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7433,35 +7497,37 @@
         <v>40</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>66</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -7472,14 +7538,12 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>40</v>
       </c>
@@ -7488,28 +7552,32 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
       </c>
@@ -7557,39 +7625,39 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>372</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7600,7 +7668,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -7609,18 +7677,20 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -7669,28 +7739,28 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>377</v>
+        <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>40</v>
@@ -7698,42 +7768,44 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>381</v>
+        <v>125</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7781,28 +7853,28 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>40</v>
@@ -7810,10 +7882,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7824,7 +7896,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -7833,19 +7905,21 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>61</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>62</v>
+        <v>340</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7893,50 +7967,50 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -7945,21 +8019,23 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7995,40 +8071,40 @@
         <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>40</v>
@@ -8036,23 +8112,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
@@ -8061,21 +8135,23 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>62</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
       </c>
@@ -8123,68 +8199,68 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>394</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>49</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>61</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>62</v>
+        <v>368</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8235,39 +8311,39 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>63</v>
+        <v>364</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>397</v>
+        <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>64</v>
+        <v>369</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>40</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8290,13 +8366,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>67</v>
+        <v>374</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8335,37 +8411,37 @@
         <v>40</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>40</v>
+        <v>378</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -8376,10 +8452,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8387,10 +8463,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -8402,24 +8478,22 @@
         <v>40</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>407</v>
+        <v>40</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>40</v>
@@ -8449,37 +8523,35 @@
         <v>40</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -8490,24 +8562,26 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>40</v>
@@ -8516,13 +8590,13 @@
         <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8573,39 +8647,39 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>40</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8616,7 +8690,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -8625,20 +8699,18 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>60</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -8687,28 +8759,28 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>40</v>
@@ -8716,43 +8788,41 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>40</v>
+        <v>397</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>90</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -8777,13 +8847,13 @@
         <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>426</v>
+        <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>40</v>
@@ -8801,25 +8871,25 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>147</v>
+        <v>401</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>40</v>
+        <v>402</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
@@ -8830,10 +8900,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8844,7 +8914,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -8853,20 +8923,18 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>63</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>40</v>
@@ -8915,22 +8983,22 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>65</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>433</v>
+        <v>66</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8944,21 +9012,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -8967,19 +9035,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>70</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>71</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>437</v>
+        <v>72</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9017,34 +9085,34 @@
         <v>40</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -9058,21 +9126,23 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="D62" t="s" s="2">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -9081,19 +9151,19 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9143,39 +9213,39 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>446</v>
+        <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>447</v>
+        <v>40</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>40</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9186,7 +9256,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -9198,17 +9268,15 @@
         <v>40</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>371</v>
+        <v>50</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
+        <v>63</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>40</v>
@@ -9257,22 +9325,22 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>65</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>414</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>452</v>
+        <v>66</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -9286,10 +9354,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9300,10 +9368,10 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>40</v>
@@ -9312,17 +9380,15 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>454</v>
+        <v>69</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>40</v>
@@ -9359,19 +9425,19 @@
         <v>40</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>453</v>
+        <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -9383,10 +9449,10 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>458</v>
+        <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -9395,15 +9461,15 @@
         <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>459</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9411,10 +9477,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -9426,22 +9492,24 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>61</v>
+        <v>421</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>40</v>
+        <v>424</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>40</v>
@@ -9483,13 +9551,13 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>63</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
@@ -9498,7 +9566,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -9512,21 +9580,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>40</v>
@@ -9538,17 +9606,15 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>67</v>
+        <v>428</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>68</v>
+        <v>429</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>40</v>
@@ -9585,34 +9651,34 @@
         <v>40</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>40</v>
+        <v>432</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -9626,10 +9692,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9640,7 +9706,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -9649,19 +9715,19 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>463</v>
+        <v>62</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9711,28 +9777,28 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>40</v>
+        <v>438</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>468</v>
+        <v>148</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>40</v>
@@ -9740,10 +9806,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9754,27 +9820,29 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -9799,13 +9867,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>443</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>40</v>
+        <v>444</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -9823,39 +9891,39 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>473</v>
+        <v>148</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>474</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9863,30 +9931,32 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>476</v>
+        <v>158</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -9935,39 +10005,39 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>481</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9978,27 +10048,29 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>483</v>
+        <v>62</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>40</v>
@@ -10047,22 +10119,22 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>486</v>
+        <v>148</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -10076,21 +10148,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
@@ -10099,18 +10171,20 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>60</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>61</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -10159,28 +10233,28 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>63</v>
+        <v>457</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>64</v>
+        <v>463</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>40</v>
+        <v>464</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>40</v>
+        <v>465</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>40</v>
@@ -10188,21 +10262,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -10214,16 +10288,16 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>67</v>
+        <v>388</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>68</v>
+        <v>467</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>69</v>
+        <v>468</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>70</v>
+        <v>469</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10273,22 +10347,22 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>74</v>
+        <v>466</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -10302,14 +10376,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>490</v>
+        <v>40</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10319,29 +10393,27 @@
         <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>67</v>
+        <v>472</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>40</v>
       </c>
@@ -10389,7 +10461,7 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -10401,10 +10473,10 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>147</v>
+        <v>476</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -10413,15 +10485,15 @@
         <v>40</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>40</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10432,7 +10504,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -10444,17 +10516,15 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>495</v>
+        <v>63</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -10479,13 +10549,13 @@
         <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>498</v>
+        <v>40</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>499</v>
+        <v>40</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>40</v>
@@ -10503,22 +10573,22 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>494</v>
+        <v>65</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>500</v>
+        <v>66</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -10532,24 +10602,24 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>502</v>
+        <v>68</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>40</v>
@@ -10558,16 +10628,16 @@
         <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>503</v>
+        <v>70</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>504</v>
+        <v>71</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>505</v>
+        <v>72</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10593,32 +10663,34 @@
         <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z75" t="s" s="2">
-        <v>506</v>
+        <v>40</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>501</v>
+        <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
@@ -10627,27 +10699,27 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>507</v>
+        <v>40</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>508</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10658,7 +10730,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -10667,18 +10739,20 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>61</v>
+        <v>482</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -10727,28 +10801,28 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>63</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>64</v>
+        <v>486</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>40</v>
@@ -10756,43 +10830,41 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>67</v>
+        <v>388</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>68</v>
+        <v>488</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -10829,51 +10901,51 @@
         <v>40</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>64</v>
+        <v>491</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>40</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10881,35 +10953,31 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>102</v>
+        <v>494</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>290</v>
+        <v>495</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10957,39 +11025,39 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>294</v>
+        <v>497</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>295</v>
+        <v>498</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>40</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11000,10 +11068,10 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>40</v>
@@ -11012,13 +11080,13 @@
         <v>40</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>60</v>
+        <v>501</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>61</v>
+        <v>502</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>62</v>
+        <v>503</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11069,22 +11137,22 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>63</v>
+        <v>500</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>64</v>
+        <v>504</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -11098,21 +11166,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -11124,17 +11192,15 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -11171,34 +11237,34 @@
         <v>40</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -11212,21 +11278,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -11235,23 +11301,21 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>301</v>
+        <v>71</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>40</v>
       </c>
@@ -11299,73 +11363,75 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>515</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>40</v>
+        <v>508</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>308</v>
+        <v>509</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>309</v>
+        <v>510</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>40</v>
       </c>
@@ -11413,28 +11479,28 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>311</v>
+        <v>511</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>40</v>
@@ -11442,10 +11508,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11456,7 +11522,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -11465,21 +11531,21 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>315</v>
+        <v>513</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>40</v>
       </c>
@@ -11503,13 +11569,13 @@
         <v>40</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>40</v>
+        <v>516</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>40</v>
+        <v>517</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>40</v>
@@ -11527,31 +11593,31 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>318</v>
+        <v>512</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>319</v>
+        <v>518</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>518</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" hidden="true">
@@ -11563,37 +11629,37 @@
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>322</v>
+        <v>521</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>40</v>
       </c>
@@ -11617,13 +11683,11 @@
         <v>40</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>40</v>
+        <v>524</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>40</v>
@@ -11641,39 +11705,39 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>325</v>
+        <v>519</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>327</v>
+        <v>525</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>40</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11684,7 +11748,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
@@ -11693,23 +11757,19 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>330</v>
+        <v>62</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>331</v>
+        <v>63</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>40</v>
       </c>
@@ -11757,28 +11817,28 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>335</v>
+        <v>65</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>336</v>
+        <v>66</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>40</v>
@@ -11786,21 +11846,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>40</v>
@@ -11809,23 +11869,21 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>339</v>
+        <v>70</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>340</v>
+        <v>71</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>40</v>
       </c>
@@ -11861,62 +11919,62 @@
         <v>40</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>344</v>
+        <v>66</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>522</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>524</v>
+        <v>40</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>40</v>
@@ -11925,21 +11983,23 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>525</v>
+        <v>307</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>526</v>
+        <v>308</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
       </c>
@@ -11987,28 +12047,28 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>523</v>
+        <v>311</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>528</v>
+        <v>312</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>40</v>
@@ -12016,10 +12076,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12030,7 +12090,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>40</v>
@@ -12042,13 +12102,13 @@
         <v>40</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>530</v>
+        <v>63</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>531</v>
+        <v>64</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12099,28 +12159,28 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>529</v>
+        <v>65</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>367</v>
+        <v>66</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>532</v>
+        <v>40</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>40</v>
@@ -12128,21 +12188,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>40</v>
@@ -12154,16 +12214,16 @@
         <v>40</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>534</v>
+        <v>70</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>536</v>
+        <v>72</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12189,46 +12249,46 @@
         <v>40</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>537</v>
+        <v>40</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>538</v>
+        <v>40</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>533</v>
+        <v>76</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>40</v>
@@ -12242,10 +12302,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12256,7 +12316,7 @@
         <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>40</v>
@@ -12265,21 +12325,23 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>540</v>
+        <v>317</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>541</v>
+        <v>318</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>40</v>
       </c>
@@ -12303,13 +12365,13 @@
         <v>40</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>543</v>
+        <v>40</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>544</v>
+        <v>40</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>40</v>
@@ -12327,39 +12389,39 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>539</v>
+        <v>321</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>545</v>
+        <v>322</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>40</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12370,7 +12432,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>40</v>
@@ -12379,19 +12441,19 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>454</v>
+        <v>62</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>547</v>
+        <v>325</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>548</v>
+        <v>326</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>549</v>
+        <v>327</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12441,35 +12503,1063 @@
         <v>40</v>
       </c>
       <c r="AF91" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AG91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH91" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH100" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AI100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN91">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12479,7 +13569,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -207,7 +207,196 @@
 </t>
   </si>
   <si>
-    <t>AllergyIntolerance.meta.id</t>
+    <t>AllergyIntolerance.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External ids for this item</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this AllergyIntolerance by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the AllergyIntolerance as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>IAM-7</t>
+  </si>
+  <si>
+    <t>intoleranceCondition.recordIdentifer</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:recordIdentifier</t>
+  </si>
+  <si>
+    <t>recordIdentifier</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier:recordIdentifier.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -226,24 +415,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>AllergyIntolerance.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
+    <t>AllergyIntolerance.identifier:recordIdentifier.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.identifier.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -253,315 +431,7 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>intoleranceCondition.recordUpdateTime</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External ids for this item</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this AllergyIntolerance by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the AllergyIntolerance as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:use}
-</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>IAM-7</t>
-  </si>
-  <si>
-    <t>intoleranceCondition.recordIdentifer</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.identifier:recordIdentifier</t>
-  </si>
-  <si>
-    <t>recordIdentifier</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.identifier:recordIdentifier.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.identifier.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.identifier:recordIdentifier.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.identifier.extension</t>
   </si>
   <si>
     <t>AllergyIntolerance.identifier:recordIdentifier.use</t>
@@ -620,6 +490,9 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -993,6 +866,10 @@
     <t>AllergyIntolerance.code.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1644,6 +1521,9 @@
   </si>
   <si>
     <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identified as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes defining the type of the substance (including pharmaceutical products).</t>
@@ -2129,7 +2009,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AO92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2176,6 +2056,7 @@
     <col min="38" max="38" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="43.93359375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="99.44140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="99.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2291,6 +2172,9 @@
       <c r="AN1" t="s" s="2">
         <v>46</v>
       </c>
+      <c r="AO1" t="s" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -2405,6 +2289,9 @@
       <c r="AN2" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AO2" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
@@ -2517,6 +2404,9 @@
       <c r="AN3" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="AO3" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
@@ -2540,10 +2430,10 @@
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>62</v>
@@ -2554,7 +2444,9 @@
       <c r="M4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>40</v>
@@ -2603,7 +2495,7 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
@@ -2615,10 +2507,10 @@
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>40</v>
@@ -2627,6 +2519,9 @@
         <v>40</v>
       </c>
       <c r="AN4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO4" t="s" s="2">
         <v>40</v>
       </c>
     </row>
@@ -2639,14 +2534,14 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2658,16 +2553,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2693,46 +2588,46 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -2741,19 +2636,22 @@
         <v>40</v>
       </c>
       <c r="AN5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO5" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2769,10 +2667,10 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>79</v>
@@ -2846,7 +2744,7 @@
         <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>40</v>
@@ -2855,47 +2753,50 @@
         <v>40</v>
       </c>
       <c r="AN6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO6" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2945,22 +2846,22 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -2969,26 +2870,29 @@
         <v>40</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>40</v>
@@ -2997,19 +2901,19 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3059,22 +2963,22 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -3083,19 +2987,22 @@
         <v>40</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO8" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3108,24 +3015,26 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
       </c>
@@ -3173,7 +3082,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3185,10 +3094,10 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -3197,15 +3106,18 @@
         <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO9" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3213,7 +3125,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -3228,18 +3140,20 @@
         <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
       </c>
@@ -3263,31 +3177,29 @@
         <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3302,26 +3214,31 @@
         <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>116</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>40</v>
       </c>
@@ -3330,7 +3247,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -3342,18 +3259,20 @@
         <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
       </c>
@@ -3377,13 +3296,13 @@
         <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>40</v>
@@ -3401,7 +3320,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3416,15 +3335,18 @@
         <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AN11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO11" t="s" s="2">
         <v>40</v>
       </c>
     </row>
@@ -3433,7 +3355,7 @@
         <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3450,23 +3372,21 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>40</v>
@@ -3515,7 +3435,7 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3527,10 +3447,10 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -3539,26 +3459,29 @@
         <v>40</v>
       </c>
       <c r="AN12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -3570,16 +3493,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3605,46 +3528,46 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -3653,23 +3576,26 @@
         <v>40</v>
       </c>
       <c r="AN13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>48</v>
@@ -3678,24 +3604,26 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>40</v>
       </c>
@@ -3704,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>40</v>
@@ -3719,13 +3647,13 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
@@ -3743,7 +3671,7 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -3758,35 +3686,38 @@
         <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -3795,21 +3726,23 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
       </c>
@@ -3833,13 +3766,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -3857,50 +3790,53 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -3909,21 +3845,23 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
       </c>
@@ -3935,7 +3873,7 @@
         <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>40</v>
@@ -3971,75 +3909,76 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>40</v>
       </c>
@@ -4051,7 +3990,7 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>40</v>
@@ -4087,39 +4026,42 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4127,10 +4069,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -4142,20 +4084,16 @@
         <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>40</v>
       </c>
@@ -4191,23 +4129,25 @@
         <v>40</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
@@ -4216,28 +4156,29 @@
         <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>40</v>
       </c>
@@ -4258,20 +4199,18 @@
         <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>40</v>
       </c>
@@ -4319,13 +4258,13 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
@@ -4334,26 +4273,31 @@
         <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="AN19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>40</v>
       </c>
@@ -4371,19 +4315,23 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>40</v>
       </c>
@@ -4431,50 +4379,53 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AN20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
@@ -4486,17 +4437,15 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>40</v>
@@ -4533,34 +4482,34 @@
         <v>40</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -4569,51 +4518,52 @@
         <v>40</v>
       </c>
       <c r="AN21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>40</v>
       </c>
@@ -4622,7 +4572,7 @@
         <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>40</v>
@@ -4637,63 +4587,66 @@
         <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AN22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4701,7 +4654,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>48</v>
@@ -4710,25 +4663,25 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -4738,7 +4691,7 @@
         <v>40</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>40</v>
@@ -4753,13 +4706,13 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>40</v>
@@ -4777,7 +4730,7 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4792,24 +4745,27 @@
         <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="AN23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4832,19 +4788,19 @@
         <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -4857,7 +4813,7 @@
         <v>40</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>40</v>
@@ -4869,13 +4825,13 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>40</v>
@@ -4893,7 +4849,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -4905,27 +4861,30 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="AN24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4951,15 +4910,17 @@
         <v>62</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4971,7 +4932,7 @@
         <v>40</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>40</v>
@@ -5007,7 +4968,7 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -5019,27 +4980,30 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="AN25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5062,15 +5026,17 @@
         <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -5083,7 +5049,7 @@
         <v>40</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>40</v>
@@ -5119,7 +5085,7 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5134,24 +5100,27 @@
         <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5174,17 +5143,15 @@
         <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5233,7 +5200,7 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5248,28 +5215,29 @@
         <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>40</v>
       </c>
@@ -5290,20 +5258,18 @@
         <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>40</v>
       </c>
@@ -5351,13 +5317,13 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
@@ -5366,24 +5332,27 @@
         <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5397,24 +5366,26 @@
         <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>40</v>
@@ -5424,7 +5395,7 @@
         <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>40</v>
@@ -5439,13 +5410,11 @@
         <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>40</v>
@@ -5463,7 +5432,7 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5472,62 +5441,65 @@
         <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>217</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5553,71 +5525,72 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>224</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>48</v>
@@ -5626,26 +5599,24 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>40</v>
       </c>
@@ -5654,7 +5625,7 @@
         <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>40</v>
@@ -5669,13 +5640,13 @@
         <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>40</v>
@@ -5693,7 +5664,7 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5708,38 +5679,41 @@
         <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="AN31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>40</v>
@@ -5748,20 +5722,18 @@
         <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5785,13 +5757,11 @@
         <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>40</v>
@@ -5809,13 +5779,13 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
@@ -5824,35 +5794,38 @@
         <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>243</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -5864,20 +5837,18 @@
         <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5889,7 +5860,7 @@
         <v>40</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>40</v>
@@ -5901,13 +5872,13 @@
         <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>40</v>
@@ -5925,7 +5896,7 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5937,41 +5908,44 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="AN33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>40</v>
@@ -5980,16 +5954,16 @@
         <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6003,7 +5977,7 @@
         <v>40</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>40</v>
@@ -6015,13 +5989,11 @@
         <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>40</v>
@@ -6039,7 +6011,7 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -6054,24 +6026,27 @@
         <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="AN34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6091,16 +6066,16 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6151,7 +6126,7 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -6163,38 +6138,41 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="AN35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
@@ -6203,19 +6181,19 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6253,51 +6231,54 @@
         <v>40</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="AN36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6308,30 +6289,32 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
       </c>
@@ -6340,7 +6323,7 @@
         <v>40</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>40</v>
@@ -6355,11 +6338,13 @@
         <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>40</v>
@@ -6377,39 +6362,42 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6417,32 +6405,30 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>40</v>
@@ -6467,11 +6453,13 @@
         <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>40</v>
@@ -6489,7 +6477,7 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6498,41 +6486,44 @@
         <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>267</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -6541,19 +6532,19 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6579,54 +6570,57 @@
         <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="AN39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>40</v>
       </c>
     </row>
@@ -6639,17 +6633,17 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
@@ -6658,18 +6652,20 @@
         <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>40</v>
       </c>
@@ -6693,35 +6689,37 @@
         <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AA40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
@@ -6733,32 +6731,35 @@
         <v>282</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>283</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
@@ -6770,16 +6771,16 @@
         <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6805,13 +6806,13 @@
         <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>40</v>
@@ -6829,7 +6830,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6844,38 +6845,41 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AN41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>40</v>
@@ -6884,18 +6888,18 @@
         <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6919,11 +6923,13 @@
         <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>40</v>
@@ -6956,24 +6962,27 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6993,19 +7002,21 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
       </c>
@@ -7053,7 +7064,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7065,38 +7076,41 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>66</v>
+        <v>303</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="AN43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>40</v>
@@ -7105,21 +7119,23 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
       </c>
@@ -7155,51 +7171,54 @@
         <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7207,10 +7226,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -7222,19 +7241,19 @@
         <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -7283,13 +7302,13 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>40</v>
@@ -7298,53 +7317,56 @@
         <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>40</v>
+        <v>323</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>323</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7395,10 +7417,10 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>48</v>
@@ -7407,38 +7429,41 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>66</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>332</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -7450,17 +7475,15 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>69</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7497,51 +7520,54 @@
         <v>40</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>66</v>
+        <v>337</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7561,23 +7587,19 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>91</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>40</v>
       </c>
@@ -7613,19 +7635,17 @@
         <v>40</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7640,26 +7660,31 @@
         <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>40</v>
       </c>
@@ -7671,26 +7696,24 @@
         <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -7739,7 +7762,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -7754,24 +7777,27 @@
         <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>349</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7782,7 +7808,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -7791,21 +7817,19 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>125</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7853,7 +7877,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7868,28 +7892,31 @@
         <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7899,27 +7926,25 @@
         <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>62</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7967,7 +7992,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -7982,24 +8007,27 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8019,23 +8047,19 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>347</v>
+        <v>121</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>348</v>
+        <v>122</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>40</v>
       </c>
@@ -8083,7 +8107,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8095,38 +8119,41 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>353</v>
+        <v>125</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="AN52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
@@ -8135,23 +8162,21 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
+        <v>95</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>40</v>
       </c>
@@ -8187,82 +8212,89 @@
         <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>360</v>
+        <v>131</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="D54" t="s" s="2">
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -8311,36 +8343,39 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>364</v>
+        <v>131</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>370</v>
+        <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN54" t="s" s="2">
-        <v>372</v>
+      <c r="AO54" t="s" s="2">
+        <v>371</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>373</v>
@@ -8354,7 +8389,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -8366,13 +8401,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>374</v>
+        <v>50</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>375</v>
+        <v>122</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>376</v>
+        <v>123</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8423,7 +8458,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>124</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8432,30 +8467,33 @@
         <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>377</v>
+        <v>125</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8466,7 +8504,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -8478,13 +8516,13 @@
         <v>40</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>380</v>
+        <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8523,65 +8561,68 @@
         <v>40</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>379</v>
+        <v>131</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>40</v>
@@ -8590,7 +8631,7 @@
         <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>388</v>
+        <v>62</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>381</v>
@@ -8598,14 +8639,16 @@
       <c r="M57" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>40</v>
+        <v>384</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>40</v>
@@ -8647,10 +8690,10 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>48</v>
@@ -8659,27 +8702,30 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>384</v>
+        <v>91</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>389</v>
+        <v>40</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8687,10 +8733,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -8705,10 +8751,10 @@
         <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8759,7 +8805,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -8768,34 +8814,37 @@
         <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>393</v>
+        <v>91</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>394</v>
+        <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>397</v>
+        <v>40</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8805,24 +8854,26 @@
         <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>398</v>
+        <v>121</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -8871,7 +8922,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -8880,30 +8931,33 @@
         <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>398</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>401</v>
+        <v>91</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8923,18 +8977,20 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>62</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>63</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>40</v>
@@ -8959,13 +9015,13 @@
         <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>403</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>40</v>
@@ -8983,7 +9039,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>65</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -8995,10 +9051,10 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -9007,26 +9063,29 @@
         <v>40</v>
       </c>
       <c r="AN60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -9035,19 +9094,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>71</v>
+        <v>408</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>72</v>
+        <v>409</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9085,34 +9144,34 @@
         <v>40</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -9121,19 +9180,20 @@
         <v>40</v>
       </c>
       <c r="AN61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>40</v>
       </c>
@@ -9145,25 +9205,25 @@
         <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>407</v>
+        <v>121</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9213,22 +9273,22 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -9237,26 +9297,29 @@
         <v>40</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>411</v>
+        <v>40</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>40</v>
+        <v>418</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -9265,18 +9328,20 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>50</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>63</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>40</v>
@@ -9325,7 +9390,7 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -9334,30 +9399,33 @@
         <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>66</v>
+        <v>423</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>40</v>
+        <v>424</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="AN63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9380,15 +9448,17 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>40</v>
@@ -9425,34 +9495,34 @@
         <v>40</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -9461,15 +9531,18 @@
         <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9477,13 +9550,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>40</v>
@@ -9492,16 +9565,16 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>91</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9509,7 +9582,7 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>40</v>
@@ -9551,22 +9624,22 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>148</v>
+        <v>436</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -9575,15 +9648,18 @@
         <v>40</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>40</v>
+        <v>437</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>437</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9591,7 +9667,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>48</v>
@@ -9606,13 +9682,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>428</v>
+        <v>121</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>122</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
+        <v>123</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9663,7 +9739,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>431</v>
+        <v>124</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -9672,13 +9748,13 @@
         <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>432</v>
+        <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -9687,26 +9763,29 @@
         <v>40</v>
       </c>
       <c r="AN66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -9715,19 +9794,19 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>434</v>
+        <v>95</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>435</v>
+        <v>128</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>436</v>
+        <v>97</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9765,34 +9844,34 @@
         <v>40</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>437</v>
+        <v>131</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>438</v>
+        <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -9801,15 +9880,18 @@
         <v>40</v>
       </c>
       <c r="AN67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9820,7 +9902,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -9832,16 +9914,16 @@
         <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>91</v>
+        <v>441</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9867,13 +9949,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>443</v>
+        <v>40</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>444</v>
+        <v>40</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -9906,24 +9988,27 @@
         <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>148</v>
+        <v>446</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AN68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9937,7 +10022,7 @@
         <v>48</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>40</v>
@@ -9946,17 +10031,15 @@
         <v>49</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N69" t="s" s="2">
         <v>449</v>
       </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -10026,18 +10109,21 @@
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>40</v>
+        <v>452</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>452</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10045,13 +10131,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>40</v>
@@ -10060,17 +10146,15 @@
         <v>49</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>40</v>
@@ -10119,10 +10203,10 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>48</v>
@@ -10134,57 +10218,58 @@
         <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>148</v>
+        <v>458</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>40</v>
+        <v>459</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>459</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>458</v>
+        <v>40</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -10233,13 +10318,13 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>40</v>
@@ -10248,24 +10333,27 @@
         <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>464</v>
+        <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>465</v>
+        <v>40</v>
       </c>
       <c r="AN71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10276,7 +10364,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -10288,17 +10376,15 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>388</v>
+        <v>121</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>467</v>
+        <v>122</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>40</v>
@@ -10347,7 +10433,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>466</v>
+        <v>124</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -10359,10 +10445,10 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>470</v>
+        <v>125</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -10371,19 +10457,22 @@
         <v>40</v>
       </c>
       <c r="AN72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10393,7 +10482,7 @@
         <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>40</v>
@@ -10402,16 +10491,16 @@
         <v>40</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>472</v>
+        <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>473</v>
+        <v>95</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>474</v>
+        <v>128</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>475</v>
+        <v>97</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10461,7 +10550,7 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>471</v>
+        <v>131</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -10473,10 +10562,10 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>476</v>
+        <v>125</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -10485,47 +10574,54 @@
         <v>40</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>477</v>
+        <v>40</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>40</v>
+        <v>468</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>63</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
       </c>
@@ -10573,22 +10669,22 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>65</v>
+        <v>471</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -10597,26 +10693,29 @@
         <v>40</v>
       </c>
       <c r="AN74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -10628,16 +10727,16 @@
         <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>70</v>
+        <v>473</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>71</v>
+        <v>474</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>72</v>
+        <v>475</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10663,46 +10762,46 @@
         <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>40</v>
+        <v>476</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>40</v>
+        <v>477</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>40</v>
+        <v>478</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>66</v>
+        <v>479</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -10711,6 +10810,9 @@
         <v>40</v>
       </c>
       <c r="AN75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>40</v>
       </c>
     </row>
@@ -10723,26 +10825,26 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>40</v>
+        <v>481</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>481</v>
+        <v>146</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>482</v>
@@ -10777,13 +10879,11 @@
         <v>40</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>40</v>
+        <v>485</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>40</v>
@@ -10801,13 +10901,13 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>40</v>
@@ -10816,24 +10916,27 @@
         <v>60</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="AN76" t="s" s="2">
-        <v>40</v>
+        <v>487</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>487</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10847,22 +10950,22 @@
         <v>48</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>388</v>
+        <v>121</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>488</v>
+        <v>122</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>489</v>
+        <v>123</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10913,7 +11016,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>490</v>
+        <v>124</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -10925,58 +11028,63 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>491</v>
+        <v>125</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>492</v>
+        <v>40</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>494</v>
+        <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>495</v>
+        <v>95</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11013,51 +11121,54 @@
         <v>40</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>497</v>
+        <v>131</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>498</v>
+        <v>125</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>499</v>
+        <v>40</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11071,25 +11182,29 @@
         <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K79" t="s" s="2">
-        <v>501</v>
+        <v>266</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>502</v>
+        <v>267</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
       </c>
@@ -11137,7 +11252,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>500</v>
+        <v>271</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -11152,24 +11267,27 @@
         <v>60</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="AN79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11192,13 +11310,13 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11249,7 +11367,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -11264,7 +11382,7 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -11273,19 +11391,22 @@
         <v>40</v>
       </c>
       <c r="AN80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11304,16 +11425,16 @@
         <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11351,19 +11472,19 @@
         <v>40</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -11375,10 +11496,10 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -11387,50 +11508,53 @@
         <v>40</v>
       </c>
       <c r="AN81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>508</v>
+        <v>40</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>509</v>
+        <v>277</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>510</v>
+        <v>278</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>40</v>
@@ -11479,39 +11603,42 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>511</v>
+        <v>281</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="AN82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11522,7 +11649,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -11531,19 +11658,19 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>513</v>
+        <v>285</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>514</v>
+        <v>286</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>515</v>
+        <v>287</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11569,13 +11696,13 @@
         <v>40</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>516</v>
+        <v>40</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>517</v>
+        <v>40</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>40</v>
@@ -11593,7 +11720,7 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>512</v>
+        <v>288</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -11608,58 +11735,61 @@
         <v>60</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>518</v>
+        <v>289</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="AN83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>520</v>
+        <v>40</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K84" t="s" s="2">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>521</v>
+        <v>292</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>40</v>
       </c>
@@ -11683,11 +11813,13 @@
         <v>40</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>524</v>
+        <v>40</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>40</v>
@@ -11705,13 +11837,13 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>519</v>
+        <v>295</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>40</v>
@@ -11720,24 +11852,27 @@
         <v>60</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>525</v>
+        <v>297</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>526</v>
+        <v>497</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11757,19 +11892,21 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>40</v>
       </c>
@@ -11817,7 +11954,7 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -11829,38 +11966,41 @@
         <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>66</v>
+        <v>303</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="AN85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>40</v>
@@ -11869,21 +12009,23 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>40</v>
       </c>
@@ -11919,51 +12061,54 @@
         <v>40</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AN86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11974,7 +12119,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>40</v>
@@ -11986,19 +12131,19 @@
         <v>49</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -12047,13 +12192,13 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>40</v>
@@ -12062,35 +12207,38 @@
         <v>60</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>40</v>
+        <v>501</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>501</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>40</v>
+        <v>503</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>40</v>
@@ -12102,15 +12250,17 @@
         <v>40</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>63</v>
+        <v>504</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>40</v>
@@ -12159,7 +12309,7 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>65</v>
+        <v>502</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -12171,10 +12321,10 @@
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>66</v>
+        <v>507</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>40</v>
@@ -12183,26 +12333,29 @@
         <v>40</v>
       </c>
       <c r="AN88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>40</v>
@@ -12214,17 +12367,15 @@
         <v>40</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>70</v>
+        <v>509</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>40</v>
@@ -12261,51 +12412,54 @@
         <v>40</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>76</v>
+        <v>508</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>40</v>
+        <v>511</v>
       </c>
       <c r="AN89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO89" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12316,7 +12470,7 @@
         <v>38</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>40</v>
@@ -12325,23 +12479,21 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>317</v>
+        <v>513</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>318</v>
+        <v>514</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>40</v>
       </c>
@@ -12365,13 +12517,13 @@
         <v>40</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>40</v>
+        <v>516</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>40</v>
+        <v>517</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>40</v>
@@ -12389,7 +12541,7 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>321</v>
+        <v>512</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
@@ -12404,24 +12556,27 @@
         <v>60</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>533</v>
+        <v>40</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12432,7 +12587,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>40</v>
@@ -12441,19 +12596,19 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>325</v>
+        <v>519</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>326</v>
+        <v>520</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>327</v>
+        <v>521</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12479,13 +12634,13 @@
         <v>40</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>40</v>
+        <v>476</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>40</v>
+        <v>522</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>40</v>
+        <v>523</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>40</v>
@@ -12503,7 +12658,7 @@
         <v>40</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>328</v>
+        <v>518</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
@@ -12518,24 +12673,27 @@
         <v>60</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>329</v>
+        <v>524</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AN91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12546,7 +12704,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>40</v>
@@ -12555,21 +12713,21 @@
         <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>125</v>
+        <v>432</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>332</v>
+        <v>526</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>40</v>
       </c>
@@ -12617,13 +12775,13 @@
         <v>40</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>335</v>
+        <v>525</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>40</v>
@@ -12632,934 +12790,23 @@
         <v>60</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>336</v>
+        <v>436</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN100">
+  <autoFilter ref="A1:AO92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13569,7 +12816,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="521">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -891,130 +891,6 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>AllergyIntolerance.code.coding.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding.extension</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>intoleranceCondition.drugClass.code</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.code.text</t>
   </si>
   <si>
@@ -1578,22 +1454,122 @@
     <t>AllergyIntolerance.reaction.manifestation.coding.system</t>
   </si>
   <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
     <t>if code is 7 digits, then system is VUID, else use SNOMED-CT system</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.version</t>
   </si>
   <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.code</t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
     <t>intoleranceCondition.reaction.reaction.code</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.display</t>
   </si>
   <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation.text</t>
@@ -2009,7 +1985,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO92"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6289,7 +6265,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -6405,7 +6381,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>48</v>
@@ -6417,19 +6393,23 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>40</v>
       </c>
@@ -6477,7 +6457,7 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6489,63 +6469,61 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6582,54 +6560,54 @@
         <v>40</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6640,7 +6618,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>40</v>
@@ -6649,23 +6627,19 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>40</v>
       </c>
@@ -6713,7 +6687,7 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6728,13 +6702,13 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>40</v>
@@ -6745,10 +6719,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6768,20 +6742,18 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -6818,19 +6790,17 @@
         <v>40</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6845,13 +6815,13 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>40</v>
@@ -6862,12 +6832,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6879,27 +6851,25 @@
         <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6947,7 +6917,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6962,27 +6932,27 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6993,7 +6963,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -7002,21 +6972,19 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>40</v>
       </c>
@@ -7064,7 +7032,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7079,16 +7047,16 @@
         <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>40</v>
@@ -7096,14 +7064,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7113,29 +7081,25 @@
         <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>40</v>
       </c>
@@ -7183,7 +7147,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7198,13 +7162,13 @@
         <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>40</v>
@@ -7215,10 +7179,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7226,7 +7190,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>48</v>
@@ -7238,23 +7202,19 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>122</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>40</v>
       </c>
@@ -7302,7 +7262,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7314,61 +7274,63 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>325</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>94</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>95</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>40</v>
@@ -7405,56 +7367,58 @@
         <v>40</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>329</v>
+        <v>125</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>40</v>
       </c>
@@ -7463,7 +7427,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -7475,15 +7439,17 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7532,42 +7498,42 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7590,13 +7556,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>341</v>
+        <v>122</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>342</v>
+        <v>123</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7635,17 +7601,19 @@
         <v>40</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>124</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7654,16 +7622,16 @@
         <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -7677,14 +7645,12 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>40</v>
       </c>
@@ -7693,10 +7659,10 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>40</v>
@@ -7705,13 +7671,13 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>348</v>
+        <v>94</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7750,54 +7716,54 @@
         <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7805,10 +7771,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -7820,22 +7786,24 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>348</v>
+        <v>62</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>40</v>
@@ -7877,10 +7845,10 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>48</v>
@@ -7889,16 +7857,16 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>353</v>
+        <v>91</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>40</v>
@@ -7909,24 +7877,24 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
@@ -7935,13 +7903,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7992,7 +7960,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8001,16 +7969,16 @@
         <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>361</v>
+        <v>91</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -8024,10 +7992,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8047,18 +8015,20 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>122</v>
+        <v>353</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>40</v>
@@ -8107,7 +8077,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>124</v>
+        <v>356</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8116,13 +8086,13 @@
         <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -8139,21 +8109,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
@@ -8162,19 +8132,19 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>128</v>
+        <v>360</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>97</v>
+        <v>361</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8200,46 +8170,46 @@
         <v>40</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -8259,11 +8229,9 @@
         <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>40</v>
       </c>
@@ -8281,19 +8249,19 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8343,22 +8311,22 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -8367,18 +8335,18 @@
         <v>40</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>371</v>
+        <v>40</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>371</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8392,24 +8360,26 @@
         <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>40</v>
@@ -8458,7 +8428,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>124</v>
+        <v>375</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8467,13 +8437,13 @@
         <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -8490,14 +8460,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8513,18 +8483,20 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>94</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -8561,40 +8533,40 @@
         <v>40</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>384</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>40</v>
@@ -8605,10 +8577,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8616,10 +8588,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
@@ -8631,16 +8603,16 @@
         <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8648,7 +8620,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>40</v>
@@ -8693,7 +8665,7 @@
         <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>48</v>
@@ -8702,10 +8674,10 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>91</v>
+        <v>389</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -8722,10 +8694,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8733,13 +8705,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>40</v>
@@ -8748,15 +8720,17 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -8805,22 +8779,22 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>91</v>
+        <v>395</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -8829,18 +8803,18 @@
         <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>40</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8860,20 +8834,18 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>394</v>
+        <v>122</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -8922,7 +8894,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>397</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -8931,13 +8903,13 @@
         <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>398</v>
+        <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -8954,21 +8926,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -8977,19 +8949,19 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>401</v>
+        <v>128</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>402</v>
+        <v>97</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9015,46 +8987,46 @@
         <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>131</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -9071,10 +9043,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9085,7 +9057,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -9097,16 +9069,16 @@
         <v>49</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9156,7 +9128,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9171,13 +9143,13 @@
         <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>40</v>
@@ -9188,10 +9160,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9214,17 +9186,15 @@
         <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>40</v>
@@ -9273,7 +9243,7 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9288,41 +9258,41 @@
         <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>40</v>
+        <v>411</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>40</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>418</v>
+        <v>40</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>40</v>
@@ -9331,17 +9301,15 @@
         <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>40</v>
@@ -9390,10 +9358,10 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>48</v>
@@ -9405,27 +9373,27 @@
         <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>425</v>
+        <v>91</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>40</v>
+        <v>418</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>40</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9436,10 +9404,10 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>40</v>
@@ -9448,17 +9416,15 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>40</v>
@@ -9507,13 +9473,13 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>40</v>
@@ -9522,7 +9488,7 @@
         <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -9539,10 +9505,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9553,10 +9519,10 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>40</v>
@@ -9565,17 +9531,15 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>432</v>
+        <v>121</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>433</v>
+        <v>122</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -9624,22 +9588,22 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>431</v>
+        <v>124</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>436</v>
+        <v>125</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -9648,29 +9612,29 @@
         <v>40</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>437</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>40</v>
@@ -9682,15 +9646,17 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>40</v>
@@ -9739,19 +9705,19 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>125</v>
@@ -9771,14 +9737,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9791,24 +9757,26 @@
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>128</v>
+        <v>429</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>40</v>
       </c>
@@ -9844,19 +9812,19 @@
         <v>40</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>131</v>
+        <v>430</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -9871,7 +9839,7 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -9888,10 +9856,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9911,19 +9879,19 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>441</v>
+        <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9949,13 +9917,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>436</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>40</v>
+        <v>437</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -9973,7 +9941,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -9988,13 +9956,13 @@
         <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>40</v>
@@ -10005,18 +9973,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>48</v>
@@ -10028,18 +9996,20 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>348</v>
+        <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>40</v>
@@ -10064,13 +10034,11 @@
         <v>40</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>40</v>
+        <v>444</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>40</v>
@@ -10088,13 +10056,13 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
@@ -10103,27 +10071,27 @@
         <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>451</v>
+        <v>232</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>91</v>
+        <v>445</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10131,28 +10099,28 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>454</v>
+        <v>121</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>122</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>456</v>
+        <v>123</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10203,10 +10171,10 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>457</v>
+        <v>124</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>48</v>
@@ -10215,34 +10183,34 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>458</v>
+        <v>125</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>459</v>
+        <v>40</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>459</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10252,7 +10220,7 @@
         <v>39</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>40</v>
@@ -10261,15 +10229,17 @@
         <v>40</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>461</v>
+        <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>462</v>
+        <v>95</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -10306,19 +10276,19 @@
         <v>40</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>460</v>
+        <v>131</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -10330,10 +10300,10 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>464</v>
+        <v>125</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -10350,10 +10320,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10364,7 +10334,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -10373,19 +10343,23 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>40</v>
       </c>
@@ -10433,28 +10407,28 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>40</v>
@@ -10465,21 +10439,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
@@ -10491,17 +10465,15 @@
         <v>40</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>40</v>
@@ -10550,19 +10522,19 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>125</v>
@@ -10582,14 +10554,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>468</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10602,26 +10574,24 @@
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>95</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>470</v>
+        <v>128</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="O74" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>40</v>
       </c>
@@ -10657,19 +10627,19 @@
         <v>40</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>471</v>
+        <v>131</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -10684,7 +10654,7 @@
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -10701,10 +10671,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10715,7 +10685,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -10724,21 +10694,23 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
       </c>
@@ -10762,13 +10734,13 @@
         <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>477</v>
+        <v>40</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>478</v>
+        <v>40</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>40</v>
@@ -10786,7 +10758,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -10801,16 +10773,16 @@
         <v>60</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>40</v>
+        <v>459</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>40</v>
+        <v>460</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -10818,42 +10790,42 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>481</v>
+        <v>40</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J76" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="K76" t="s" s="2">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10879,11 +10851,13 @@
         <v>40</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y76" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z76" t="s" s="2">
-        <v>485</v>
+        <v>40</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>40</v>
@@ -10901,13 +10875,13 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>40</v>
@@ -10916,27 +10890,27 @@
         <v>60</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>232</v>
+        <v>466</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>487</v>
+        <v>40</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>487</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10956,19 +10930,21 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>122</v>
+        <v>469</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>123</v>
+        <v>470</v>
       </c>
       <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
       </c>
@@ -11016,7 +10992,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>124</v>
+        <v>472</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11028,19 +11004,19 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>125</v>
+        <v>473</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>40</v>
+        <v>474</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>40</v>
+        <v>475</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
@@ -11048,21 +11024,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>40</v>
@@ -11071,21 +11047,21 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>95</v>
+        <v>477</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
       </c>
@@ -11121,40 +11097,40 @@
         <v>40</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>131</v>
+        <v>480</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>125</v>
+        <v>481</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>40</v>
+        <v>482</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>40</v>
@@ -11165,10 +11141,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11179,7 +11155,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>40</v>
@@ -11191,19 +11167,19 @@
         <v>49</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>266</v>
+        <v>484</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>267</v>
+        <v>485</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>268</v>
+        <v>486</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>269</v>
+        <v>487</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>270</v>
+        <v>488</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11252,13 +11228,13 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>271</v>
+        <v>489</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>40</v>
@@ -11267,13 +11243,13 @@
         <v>60</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>272</v>
+        <v>490</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>273</v>
+        <v>491</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>40</v>
@@ -11284,10 +11260,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11307,19 +11283,23 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
       </c>
@@ -11367,7 +11347,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -11379,41 +11359,41 @@
         <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>40</v>
+        <v>493</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>40</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>93</v>
+        <v>495</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -11425,16 +11405,16 @@
         <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>95</v>
+        <v>496</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>128</v>
+        <v>497</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>97</v>
+        <v>498</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11472,34 +11452,34 @@
         <v>40</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>131</v>
+        <v>494</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>125</v>
+        <v>499</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -11516,10 +11496,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11530,7 +11510,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>40</v>
@@ -11539,23 +11519,19 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>277</v>
+        <v>501</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>40</v>
       </c>
@@ -11603,7 +11579,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>281</v>
+        <v>500</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -11618,16 +11594,16 @@
         <v>60</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>283</v>
+        <v>503</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>494</v>
+        <v>40</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>40</v>
@@ -11635,10 +11611,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11649,7 +11625,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -11658,19 +11634,19 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>285</v>
+        <v>505</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>286</v>
+        <v>506</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>287</v>
+        <v>507</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11696,13 +11672,13 @@
         <v>40</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>40</v>
+        <v>508</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>40</v>
+        <v>509</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>40</v>
@@ -11720,7 +11696,7 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>288</v>
+        <v>504</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -11735,13 +11711,13 @@
         <v>60</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>40</v>
@@ -11752,10 +11728,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11766,7 +11742,7 @@
         <v>38</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>40</v>
@@ -11775,21 +11751,21 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>292</v>
+        <v>511</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>40</v>
       </c>
@@ -11813,13 +11789,13 @@
         <v>40</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>40</v>
+        <v>514</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>40</v>
+        <v>515</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>40</v>
@@ -11837,7 +11813,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>295</v>
+        <v>510</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -11852,16 +11828,16 @@
         <v>60</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>296</v>
+        <v>516</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>497</v>
+        <v>40</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>40</v>
@@ -11869,10 +11845,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11883,7 +11859,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
@@ -11892,21 +11868,21 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>121</v>
+        <v>391</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>299</v>
+        <v>518</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>40</v>
       </c>
@@ -11954,13 +11930,13 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>302</v>
+        <v>517</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>40</v>
@@ -11969,844 +11945,23 @@
         <v>60</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>303</v>
+        <v>395</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO92" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO92">
+  <autoFilter ref="A1:AO85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12816,7 +11971,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -309,33 +309,66 @@
     <t>AllergyIntolerance.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.extension:observedHistoric</t>
+  </si>
+  <si>
+    <t>observedHistoric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/allergyObservedHistoric}
+</t>
+  </si>
+  <si>
+    <t>Allergy Observed vs Historic</t>
+  </si>
+  <si>
+    <t>Maps to Vista 120.8 (Allergy) - (6) OBSERVED/HISTORICAL
+'o' FOR OBSERVED;
+'h' FOR HISTORICAL;
+LAST EDITED:  DEC 07, 1990
+DESCRIPTION:  
+Indicates whether this allergy/adverse reaction has been observed by some personnel, or if it is historical data gathered about the patient.
+RECORD INDEXES:  AHDR (#482)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>intoleranceCondition.informationSourceCategory</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -343,6 +376,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -372,9 +408,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -421,11 +454,10 @@
     <t>AllergyIntolerance.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -680,14 +712,6 @@
 The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/allergyintolerance-clinical"/&gt;
-    &lt;code value="active"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical</t>
   </si>
   <si>
@@ -701,13 +725,13 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>`active`</t>
+    <t>`active` if not entered-in-error</t>
   </si>
   <si>
     <t>AllergyIntolerance.verificationStatus</t>
   </si>
   <si>
-    <t>unconfirmed | confirmed | refuted | entered-in-error</t>
+    <t>May indicate entered-in-error</t>
   </si>
   <si>
     <t>Assertion about certainty associated with the propensity, or potential risk, of a reaction to the identified substance (including pharmaceutical product).</t>
@@ -722,7 +746,7 @@
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
   </si>
   <si>
-    <t>intoleranceCondition.informationSourceCategory: `OBSERVED` -&gt; `confirmed`;  `HISTORICAL` -&gt; `unconfirmed`</t>
+    <t>would indicate `entered-in-error`</t>
   </si>
   <si>
     <t>AllergyIntolerance.type</t>
@@ -999,25 +1023,25 @@
 </t>
   </si>
   <si>
+    <t>AllergyIntolerance.recordedDate</t>
+  </si>
+  <si>
+    <t>Date first version of the resource instance was recorded</t>
+  </si>
+  <si>
+    <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>IAM-13</t>
+  </si>
+  <si>
     <t>~intoleranceCondition.observationTime.literal</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.recordedDate</t>
-  </si>
-  <si>
-    <t>Date first version of the resource instance was recorded</t>
-  </si>
-  <si>
-    <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>IAM-13</t>
   </si>
   <si>
     <t>AllergyIntolerance.recorder</t>
@@ -1077,20 +1101,10 @@
     <t>AllergyIntolerance.recorder.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.recorder.extension:visn.extension</t>
   </si>
   <si>
     <t>AllergyIntolerance.recorder.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>AllergyIntolerance.recorder.extension:visn.url</t>
@@ -1985,7 +1999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1996,14 +2010,14 @@
   <cols>
     <col min="1" max="1" width="56.9375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.15625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.01171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2031,8 +2045,8 @@
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="99.44140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="99.44140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="61.3671875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="47.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2861,7 +2875,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2880,17 +2894,15 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>97</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>40</v>
@@ -2927,16 +2939,14 @@
         <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>98</v>
@@ -2954,7 +2964,7 @@
         <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -2974,43 +2984,41 @@
         <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>40</v>
       </c>
@@ -3058,7 +3066,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3067,13 +3075,13 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -3082,26 +3090,26 @@
         <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -3110,25 +3118,25 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
@@ -3165,17 +3173,19 @@
         <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AC10" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3187,43 +3197,41 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -3235,19 +3243,19 @@
         <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
@@ -3284,19 +3292,17 @@
         <v>40</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3311,29 +3317,31 @@
         <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>40</v>
       </c>
@@ -3351,19 +3359,23 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>40</v>
       </c>
@@ -3411,28 +3423,28 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>40</v>
@@ -3443,21 +3455,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -3469,17 +3481,15 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>40</v>
@@ -3516,34 +3526,34 @@
         <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -3560,46 +3570,44 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>40</v>
       </c>
@@ -3608,67 +3616,67 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>40</v>
@@ -3679,10 +3687,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3690,7 +3698,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>48</v>
@@ -3699,25 +3707,25 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
@@ -3727,7 +3735,7 @@
         <v>40</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>40</v>
@@ -3742,13 +3750,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -3766,7 +3774,7 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3781,13 +3789,13 @@
         <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>40</v>
@@ -3798,10 +3806,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3824,19 +3832,19 @@
         <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
@@ -3849,64 +3857,64 @@
         <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="U16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>40</v>
@@ -3917,10 +3925,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3943,18 +3951,20 @@
         <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3966,64 +3976,64 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="U17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>40</v>
@@ -4034,10 +4044,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4060,15 +4070,17 @@
         <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>40</v>
@@ -4081,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>40</v>
@@ -4183,9 +4195,7 @@
       <c r="M19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>40</v>
@@ -4234,7 +4244,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -4249,13 +4259,13 @@
         <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>40</v>
@@ -4266,14 +4276,12 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>40</v>
       </c>
@@ -4294,20 +4302,18 @@
         <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>40</v>
       </c>
@@ -4355,13 +4361,13 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
@@ -4370,13 +4376,13 @@
         <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>40</v>
@@ -4387,12 +4393,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>40</v>
       </c>
@@ -4410,19 +4418,23 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>40</v>
       </c>
@@ -4470,28 +4482,28 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>40</v>
@@ -4502,21 +4514,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
@@ -4528,17 +4540,15 @@
         <v>40</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -4575,34 +4585,34 @@
         <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4619,46 +4629,44 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4667,7 +4675,7 @@
         <v>40</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>40</v>
@@ -4682,52 +4690,52 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>40</v>
@@ -4738,10 +4746,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4749,7 +4757,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>48</v>
@@ -4758,25 +4766,25 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -4786,7 +4794,7 @@
         <v>40</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>40</v>
@@ -4801,13 +4809,13 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>40</v>
@@ -4825,7 +4833,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -4840,13 +4848,13 @@
         <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>40</v>
@@ -4857,10 +4865,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4883,19 +4891,19 @@
         <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>40</v>
@@ -4908,64 +4916,64 @@
         <v>40</v>
       </c>
       <c r="T25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="U25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>40</v>
@@ -4976,10 +4984,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5002,18 +5010,20 @@
         <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>40</v>
       </c>
@@ -5025,7 +5035,7 @@
         <v>40</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>40</v>
@@ -5061,28 +5071,28 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>40</v>
@@ -5093,10 +5103,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5119,15 +5129,17 @@
         <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5140,7 +5152,7 @@
         <v>40</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>40</v>
@@ -5208,7 +5220,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>185</v>
@@ -5242,9 +5254,7 @@
       <c r="M28" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>40</v>
@@ -5293,7 +5303,7 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -5308,13 +5318,13 @@
         <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>40</v>
@@ -5325,10 +5335,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5342,25 +5352,25 @@
         <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5371,7 +5381,7 @@
         <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>40</v>
@@ -5386,11 +5396,13 @@
         <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>40</v>
@@ -5408,7 +5420,7 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5417,33 +5429,33 @@
         <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5451,7 +5463,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>48</v>
@@ -5466,16 +5478,16 @@
         <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5501,11 +5513,11 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
@@ -5523,7 +5535,7 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5532,16 +5544,16 @@
         <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -5562,7 +5574,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5572,25 +5584,25 @@
         <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5616,13 +5628,11 @@
         <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>40</v>
@@ -5649,47 +5659,47 @@
         <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>40</v>
@@ -5701,13 +5711,13 @@
         <v>68</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5733,11 +5743,13 @@
         <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>40</v>
@@ -5755,13 +5767,13 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
@@ -5770,41 +5782,41 @@
         <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AN32" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>40</v>
@@ -5816,13 +5828,13 @@
         <v>68</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5848,13 +5860,11 @@
         <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>40</v>
@@ -5872,13 +5882,13 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
@@ -5887,41 +5897,41 @@
         <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>40</v>
@@ -5930,16 +5940,16 @@
         <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5965,11 +5975,13 @@
         <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>40</v>
@@ -5987,7 +5999,7 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -6002,13 +6014,13 @@
         <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>40</v>
@@ -6019,41 +6031,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6078,13 +6092,11 @@
         <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>40</v>
@@ -6102,7 +6114,7 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -6114,16 +6126,16 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>40</v>
@@ -6134,21 +6146,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
@@ -6160,17 +6172,15 @@
         <v>40</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6207,34 +6217,34 @@
         <v>40</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -6251,21 +6261,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -6274,23 +6284,21 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>136</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>40</v>
       </c>
@@ -6326,19 +6334,19 @@
         <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6350,16 +6358,16 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>40</v>
@@ -6370,10 +6378,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6381,10 +6389,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -6396,19 +6404,19 @@
         <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>40</v>
@@ -6457,13 +6465,13 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>40</v>
@@ -6472,31 +6480,31 @@
         <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AN38" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6506,7 +6514,7 @@
         <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
@@ -6515,16 +6523,20 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>40</v>
       </c>
@@ -6572,10 +6584,10 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>48</v>
@@ -6587,56 +6599,56 @@
         <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AM39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AO39" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6687,10 +6699,10 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>48</v>
@@ -6702,27 +6714,27 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM40" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AN40" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6733,7 +6745,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
@@ -6745,13 +6757,13 @@
         <v>40</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6790,17 +6802,19 @@
         <v>40</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6835,11 +6849,9 @@
         <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6851,7 +6863,7 @@
         <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>40</v>
@@ -6860,13 +6872,13 @@
         <v>40</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6905,19 +6917,17 @@
         <v>40</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6932,29 +6942,31 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>308</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6975,13 +6987,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7032,7 +7044,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7047,13 +7059,13 @@
         <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>40</v>
@@ -7071,7 +7083,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7090,13 +7102,13 @@
         <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7162,19 +7174,19 @@
         <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AO44" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -7186,7 +7198,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7196,7 +7208,7 @@
         <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>40</v>
@@ -7205,13 +7217,13 @@
         <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>122</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7262,7 +7274,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7274,13 +7286,13 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>125</v>
+        <v>327</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -7294,21 +7306,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -7320,17 +7332,15 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>40</v>
@@ -7367,34 +7377,34 @@
         <v>40</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -7411,23 +7421,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -7439,16 +7447,16 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
+        <v>137</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>329</v>
+        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7486,19 +7494,19 @@
         <v>40</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7513,7 +7521,7 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -7522,10 +7530,10 @@
         <v>40</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7533,9 +7541,11 @@
         <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>40</v>
       </c>
@@ -7556,15 +7566,17 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -7613,22 +7625,22 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -7637,18 +7649,18 @@
         <v>40</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>40</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7659,7 +7671,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -7671,13 +7683,13 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7716,34 +7728,34 @@
         <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -7760,10 +7772,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7771,10 +7783,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -7786,24 +7798,22 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>94</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>40</v>
@@ -7833,34 +7843,34 @@
         <v>40</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>139</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7877,10 +7887,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7903,22 +7913,24 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>62</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>40</v>
@@ -7960,19 +7972,19 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>91</v>
@@ -7992,10 +8004,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8003,7 +8015,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>48</v>
@@ -8015,20 +8027,18 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>121</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>40</v>
@@ -8077,7 +8087,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8086,7 +8096,7 @@
         <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>60</v>
@@ -8109,10 +8119,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8135,16 +8145,16 @@
         <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8170,13 +8180,13 @@
         <v>40</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>40</v>
@@ -8194,7 +8204,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8203,7 +8213,7 @@
         <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>60</v>
@@ -8226,10 +8236,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8252,16 +8262,16 @@
         <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8287,13 +8297,13 @@
         <v>40</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>40</v>
@@ -8311,7 +8321,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8326,7 +8336,7 @@
         <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>370</v>
+        <v>91</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -8343,10 +8353,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8360,7 +8370,7 @@
         <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>40</v>
@@ -8369,16 +8379,16 @@
         <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8428,7 +8438,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8443,7 +8453,7 @@
         <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -8460,24 +8470,24 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>377</v>
+        <v>40</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>40</v>
@@ -8486,16 +8496,16 @@
         <v>49</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8545,7 +8555,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8560,13 +8570,13 @@
         <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>382</v>
+        <v>91</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>40</v>
@@ -8577,14 +8587,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8600,19 +8610,19 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>307</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8662,7 +8672,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -8677,13 +8687,13 @@
         <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>40</v>
+        <v>387</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>388</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>40</v>
@@ -8694,10 +8704,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8708,10 +8718,10 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>40</v>
@@ -8720,16 +8730,16 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8779,13 +8789,13 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>40</v>
@@ -8794,7 +8804,7 @@
         <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -8803,18 +8813,18 @@
         <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>396</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8825,10 +8835,10 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>40</v>
@@ -8837,15 +8847,17 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>121</v>
+        <v>395</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>122</v>
+        <v>396</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -8894,22 +8906,22 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>124</v>
+        <v>394</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>125</v>
+        <v>399</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -8918,29 +8930,29 @@
         <v>40</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -8952,17 +8964,15 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>40</v>
@@ -8999,34 +9009,34 @@
         <v>40</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -9043,21 +9053,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -9066,19 +9076,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>400</v>
+        <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>136</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>402</v>
+        <v>137</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>403</v>
+        <v>111</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9116,40 +9126,40 @@
         <v>40</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>404</v>
+        <v>139</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>405</v>
+        <v>133</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>40</v>
@@ -9160,10 +9170,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9174,10 +9184,10 @@
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>40</v>
@@ -9186,15 +9196,17 @@
         <v>49</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>40</v>
@@ -9243,7 +9255,7 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9258,7 +9270,7 @@
         <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -9267,18 +9279,18 @@
         <v>91</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>411</v>
+        <v>40</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>411</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9286,7 +9298,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>48</v>
@@ -9301,13 +9313,13 @@
         <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>413</v>
+        <v>314</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9358,10 +9370,10 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>48</v>
@@ -9373,7 +9385,7 @@
         <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -9382,18 +9394,18 @@
         <v>91</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9401,10 +9413,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>49</v>
@@ -9413,16 +9425,16 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9473,13 +9485,13 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>40</v>
@@ -9488,27 +9500,27 @@
         <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>40</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9519,10 +9531,10 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>40</v>
@@ -9531,13 +9543,13 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>121</v>
+        <v>424</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>122</v>
+        <v>425</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>123</v>
+        <v>426</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9588,22 +9600,22 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>124</v>
+        <v>423</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>125</v>
+        <v>427</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -9620,21 +9632,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>40</v>
@@ -9646,17 +9658,15 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>40</v>
@@ -9705,22 +9715,22 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -9737,14 +9747,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>427</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9757,26 +9767,24 @@
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>428</v>
+        <v>136</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>429</v>
+        <v>137</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>40</v>
       </c>
@@ -9824,7 +9832,7 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>430</v>
+        <v>139</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -9839,7 +9847,7 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -9856,33 +9864,33 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>40</v>
+        <v>431</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>432</v>
@@ -9891,9 +9899,11 @@
         <v>433</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
       </c>
@@ -9917,13 +9927,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>435</v>
+        <v>40</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>436</v>
+        <v>40</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -9941,22 +9951,22 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>438</v>
+        <v>91</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -9973,24 +9983,24 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>40</v>
@@ -9999,16 +10009,16 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10034,11 +10044,13 @@
         <v>40</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y69" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="Z69" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>40</v>
@@ -10056,13 +10068,13 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
@@ -10071,41 +10083,41 @@
         <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>232</v>
+        <v>442</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>446</v>
+        <v>40</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>446</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>40</v>
+        <v>444</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>48</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>40</v>
@@ -10114,15 +10126,17 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>122</v>
+        <v>445</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>40</v>
@@ -10147,13 +10161,11 @@
         <v>40</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>40</v>
+        <v>448</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>40</v>
@@ -10171,53 +10183,53 @@
         <v>40</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>124</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>40</v>
+        <v>449</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>40</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
@@ -10229,17 +10241,15 @@
         <v>40</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -10276,34 +10286,34 @@
         <v>40</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -10320,14 +10330,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10343,23 +10353,21 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>267</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>40</v>
       </c>
@@ -10395,19 +10403,19 @@
         <v>40</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -10419,16 +10427,16 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>40</v>
@@ -10439,10 +10447,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10453,7 +10461,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
@@ -10462,19 +10470,23 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
       </c>
@@ -10522,28 +10534,28 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>40</v>
@@ -10554,21 +10566,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -10580,17 +10592,15 @@
         <v>40</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -10627,34 +10637,34 @@
         <v>40</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -10671,21 +10681,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -10694,23 +10704,21 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>453</v>
+        <v>136</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>454</v>
+        <v>137</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>40</v>
       </c>
@@ -10746,43 +10754,43 @@
         <v>40</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>457</v>
+        <v>139</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>458</v>
+        <v>133</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>459</v>
+        <v>40</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>460</v>
+        <v>40</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -10790,10 +10798,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10816,18 +10824,20 @@
         <v>49</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
       </c>
@@ -10875,7 +10885,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -10890,16 +10900,16 @@
         <v>60</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>40</v>
+        <v>464</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -10907,10 +10917,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10933,18 +10943,18 @@
         <v>49</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>40</v>
       </c>
@@ -10992,7 +11002,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11007,16 +11017,16 @@
         <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>475</v>
+        <v>40</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
@@ -11024,10 +11034,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11050,17 +11060,17 @@
         <v>49</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11109,7 +11119,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -11124,16 +11134,16 @@
         <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>40</v>
+        <v>479</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
@@ -11141,10 +11151,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11167,19 +11177,17 @@
         <v>49</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>484</v>
+        <v>129</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11228,7 +11236,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -11243,13 +11251,13 @@
         <v>60</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>40</v>
@@ -11260,10 +11268,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11286,19 +11294,19 @@
         <v>49</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>121</v>
+        <v>488</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>275</v>
+        <v>489</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>276</v>
+        <v>490</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>277</v>
+        <v>491</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>278</v>
+        <v>492</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>40</v>
@@ -11347,7 +11355,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>279</v>
+        <v>493</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -11362,38 +11370,38 @@
         <v>60</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>280</v>
+        <v>494</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>281</v>
+        <v>495</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>493</v>
+        <v>40</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>493</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>495</v>
+        <v>40</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -11402,21 +11410,23 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>496</v>
+        <v>282</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>497</v>
+        <v>283</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>40</v>
       </c>
@@ -11464,7 +11474,7 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>494</v>
+        <v>286</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -11479,31 +11489,31 @@
         <v>60</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>499</v>
+        <v>287</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>40</v>
+        <v>497</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>40</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>40</v>
+        <v>499</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11522,15 +11532,17 @@
         <v>40</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>40</v>
@@ -11579,7 +11591,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -11594,13 +11606,13 @@
         <v>60</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>503</v>
+        <v>40</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>40</v>
@@ -11637,7 +11649,7 @@
         <v>40</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>505</v>
@@ -11645,9 +11657,7 @@
       <c r="M83" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="N83" t="s" s="2">
-        <v>507</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>40</v>
@@ -11672,13 +11682,13 @@
         <v>40</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>508</v>
+        <v>40</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>509</v>
+        <v>40</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>40</v>
@@ -11711,13 +11721,13 @@
         <v>60</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>40</v>
+        <v>507</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>40</v>
@@ -11728,10 +11738,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11754,16 +11764,16 @@
         <v>40</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11789,13 +11799,13 @@
         <v>40</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>435</v>
+        <v>147</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>40</v>
@@ -11813,7 +11823,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -11828,7 +11838,7 @@
         <v>60</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>516</v>
+        <v>258</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -11845,10 +11855,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11871,16 +11881,16 @@
         <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>391</v>
+        <v>154</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11906,13 +11916,13 @@
         <v>40</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>40</v>
+        <v>439</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>40</v>
+        <v>518</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>40</v>
+        <v>519</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
@@ -11930,13 +11940,13 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>40</v>
@@ -11945,23 +11955,140 @@
         <v>60</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO85" t="s" s="2">
+      <c r="L86" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO85">
+  <autoFilter ref="A1:AO86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11971,7 +12098,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: HDR Allergy to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: eVault-PHR to MHV-PHR</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
@@ -244,12 +250,6 @@
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HDR Allergy to mhv-fhir-phr</t>
-  </si>
-  <si>
-    <t>Mapping: eVault-PHR to MHV-PHR</t>
   </si>
   <si>
     <t>Allergy
@@ -279,10 +279,10 @@
 ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>HDR Allergy</t>
+  </si>
+  <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>HDR Allergy</t>
   </si>
   <si>
     <t>AllergyIntolerance.id</t>
@@ -531,6 +531,9 @@
 </t>
   </si>
   <si>
+    <t>intoleranceCondition.recordIdentifer</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -538,9 +541,6 @@
   </si>
   <si>
     <t>IAM-7</t>
-  </si>
-  <si>
-    <t>intoleranceCondition.recordIdentifer</t>
   </si>
   <si>
     <t>AllergyIntolerance.identifier:recordIdentifier</t>
@@ -842,15 +842,15 @@
 ait-2</t>
   </si>
   <si>
+    <t>`active` if not entered-in-error</t>
+  </si>
+  <si>
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
   </si>
   <si>
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>`active` if not entered-in-error</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.verificationStatus</t>
   </si>
   <si>
@@ -866,10 +866,10 @@
     <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification</t>
   </si>
   <si>
+    <t>would indicate `entered-in-error`</t>
+  </si>
+  <si>
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
-  </si>
-  <si>
-    <t>would indicate `entered-in-error`</t>
   </si>
   <si>
     <t>AllergyIntolerance.type</t>
@@ -922,13 +922,13 @@
     <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/AllergyCategoryVS</t>
   </si>
   <si>
+    <t>~intoleranceCondition.allergyType.code</t>
+  </si>
+  <si>
     <t>value &lt; IntoleranceValue (Agent)</t>
   </si>
   <si>
     <t>AL1-2</t>
-  </si>
-  <si>
-    <t>~intoleranceCondition.allergyType.code</t>
   </si>
   <si>
     <t>AllergyIntolerance.criticality</t>
@@ -1056,13 +1056,13 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>intoleranceCondition.agent.code</t>
+  </si>
+  <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>intoleranceCondition.agent.code</t>
   </si>
   <si>
     <t>AllergyIntolerance.patient</t>
@@ -1082,6 +1082,9 @@
     <t>The patient who has the allergy or intolerance.</t>
   </si>
   <si>
+    <t>GetPatient(intoleranceCondition.patient)</t>
+  </si>
+  <si>
     <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
   </si>
   <si>
@@ -1089,9 +1092,6 @@
   </si>
   <si>
     <t>(PID-3)</t>
-  </si>
-  <si>
-    <t>GetPatient(intoleranceCondition.patient)</t>
   </si>
   <si>
     <t>AllergyIntolerance.encounter</t>
@@ -1155,6 +1155,9 @@
     <t>The recordedDate represents when this particular AllergyIntolerance record was created in the system, which is often a system-generated date.</t>
   </si>
   <si>
+    <t>~intoleranceCondition.observationTime.literal</t>
+  </si>
+  <si>
     <t>.participation[typeCode=AUT].time</t>
   </si>
   <si>
@@ -1162,9 +1165,6 @@
   </si>
   <si>
     <t>IAM-13</t>
-  </si>
-  <si>
-    <t>~intoleranceCondition.observationTime.literal</t>
   </si>
   <si>
     <t>AllergyIntolerance.recorder</t>
@@ -1411,10 +1411,10 @@
     <t>For example: including reason for flagging a seriousness of 'High Risk'; and instructions related to future exposure or administration of the substance, such as administration within an Intensive Care Unit or under corticosteroid cover. The notes should be related to an allergy or intolerance as a condition in general and not related to any particular episode of it. For episode notes and descriptions, use AllergyIntolerance.event.description and  AllergyIntolerance.event.notes.</t>
   </si>
   <si>
+    <t>intoleranceCondition.commentEvents</t>
+  </si>
+  <si>
     <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>intoleranceCondition.commentEvents</t>
   </si>
   <si>
     <t>AllergyIntolerance.note.id</t>
@@ -1457,10 +1457,10 @@
     <t>Annotation.time</t>
   </si>
   <si>
+    <t>~intoleranceCondition.commentEvents.date.literal</t>
+  </si>
+  <si>
     <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>~intoleranceCondition.commentEvents.date.literal</t>
   </si>
   <si>
     <t>AllergyIntolerance.note.text</t>
@@ -1479,10 +1479,10 @@
     <t>Annotation.text</t>
   </si>
   <si>
+    <t>intoleranceCondition.commentEvents.comment</t>
+  </si>
+  <si>
     <t>Act.text</t>
-  </si>
-  <si>
-    <t>intoleranceCondition.commentEvents.comment</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction</t>
@@ -1567,12 +1567,12 @@
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
   </si>
   <si>
+    <t>intoleranceCondition.reaction.reaction</t>
+  </si>
+  <si>
     <t>AL1-5</t>
   </si>
   <si>
-    <t>intoleranceCondition.reaction.reaction</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.manifestation.id</t>
   </si>
   <si>
@@ -1606,15 +1606,15 @@
     <t>Coding.system</t>
   </si>
   <si>
+    <t>if code is 7 digits, then system is VUID, else use SNOMED-CT system</t>
+  </si>
+  <si>
     <t>./codeSystem</t>
   </si>
   <si>
     <t>C*E.3</t>
   </si>
   <si>
-    <t>if code is 7 digits, then system is VUID, else use SNOMED-CT system</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.version</t>
   </si>
   <si>
@@ -1651,13 +1651,13 @@
     <t>Coding.code</t>
   </si>
   <si>
+    <t>intoleranceCondition.reaction.reaction.code</t>
+  </si>
+  <si>
     <t>./code</t>
   </si>
   <si>
     <t>C*E.1</t>
-  </si>
-  <si>
-    <t>intoleranceCondition.reaction.reaction.code</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.manifestation.coding.display</t>
@@ -2166,11 +2166,11 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="61.3671875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="47.390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="61.3671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="47.390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="43.93359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2403,16 +2403,16 @@
         <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2983,13 +2983,13 @@
         <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -3100,13 +3100,13 @@
         <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -3330,19 +3330,19 @@
         <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -3449,13 +3449,13 @@
         <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>81</v>
@@ -3569,13 +3569,13 @@
         <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>165</v>
@@ -3687,19 +3687,19 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AN13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -3802,13 +3802,13 @@
         <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3919,13 +3919,13 @@
         <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -4038,19 +4038,19 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -4157,19 +4157,19 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -4276,19 +4276,19 @@
         <v>213</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -4393,19 +4393,19 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -4508,19 +4508,19 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -4625,19 +4625,19 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -4746,19 +4746,19 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -4861,13 +4861,13 @@
         <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4978,13 +4978,13 @@
         <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -5097,19 +5097,19 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -5216,19 +5216,19 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -5335,19 +5335,19 @@
         <v>252</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -5452,19 +5452,19 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -5567,19 +5567,19 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -5684,19 +5684,19 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5802,16 +5802,16 @@
         <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>265</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -5917,16 +5917,16 @@
         <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -6031,19 +6031,19 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -6149,13 +6149,13 @@
         <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>291</v>
@@ -6263,19 +6263,19 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -6378,19 +6378,19 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -6493,13 +6493,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6610,13 +6610,13 @@
         <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6729,19 +6729,19 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -6851,13 +6851,13 @@
         <v>328</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>329</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>330</v>
@@ -6966,13 +6966,13 @@
         <v>336</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>339</v>
@@ -7078,16 +7078,16 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7191,16 +7191,16 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7308,16 +7308,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7426,13 +7426,13 @@
         <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>362</v>
@@ -7538,16 +7538,16 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7653,13 +7653,13 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7770,13 +7770,13 @@
         <v>140</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7889,19 +7889,19 @@
         <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -8004,13 +8004,13 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8236,13 +8236,13 @@
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8351,13 +8351,13 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8468,13 +8468,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8585,13 +8585,13 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8702,13 +8702,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8819,13 +8819,13 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8936,19 +8936,19 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -9053,13 +9053,13 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9173,16 +9173,16 @@
         <v>440</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -9285,13 +9285,13 @@
         <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9402,13 +9402,13 @@
         <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9519,19 +9519,19 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="64" hidden="true">
@@ -9637,16 +9637,16 @@
         <v>455</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>455</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -9752,16 +9752,16 @@
         <v>462</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>462</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -9864,13 +9864,13 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9979,13 +9979,13 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10096,13 +10096,13 @@
         <v>140</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10215,13 +10215,13 @@
         <v>140</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10332,13 +10332,13 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10447,16 +10447,16 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="AN71" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>491</v>
@@ -10562,13 +10562,13 @@
         <v>81</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10679,13 +10679,13 @@
         <v>140</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10798,19 +10798,19 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="75" hidden="true">
@@ -10913,13 +10913,13 @@
         <v>81</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11030,13 +11030,13 @@
         <v>140</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11158,10 +11158,10 @@
         <v>504</v>
       </c>
       <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="78" hidden="true">
@@ -11266,19 +11266,19 @@
         <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -11392,10 +11392,10 @@
         <v>519</v>
       </c>
       <c r="AN79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="80" hidden="true">
@@ -11500,19 +11500,19 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="81" hidden="true">
@@ -11619,19 +11619,19 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -11738,19 +11738,19 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>328</v>
+        <v>538</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>81</v>
+        <v>538</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>329</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>538</v>
+        <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>538</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" hidden="true">
@@ -11855,13 +11855,13 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
@@ -11970,19 +11970,19 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -12087,13 +12087,13 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -12204,13 +12204,13 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
@@ -12321,13 +12321,13 @@
         <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.allergyIntolerance.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
